--- a/data-raw/data-tidy/rural-yearbook/part03-agri-produce/01-machine/2018.xlsx
+++ b/data-raw/data-tidy/rural-yearbook/part03-agri-produce/01-machine/2018.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t xml:space="preserve">province</t>
   </si>
@@ -32,112 +32,10 @@
     <t xml:space="preserve">variables</t>
   </si>
   <si>
-    <t xml:space="preserve">全国</t>
+    <t xml:space="preserve">安徽</t>
   </si>
   <si>
     <t xml:space="preserve">2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">农业机械总动力</t>
-  </si>
-  <si>
-    <t xml:space="preserve">万千瓦</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v7_sctj_nyjx_zdl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">北京</t>
-  </si>
-  <si>
-    <t xml:space="preserve">天津</t>
-  </si>
-  <si>
-    <t xml:space="preserve">河北</t>
-  </si>
-  <si>
-    <t xml:space="preserve">山西</t>
-  </si>
-  <si>
-    <t xml:space="preserve">内蒙古</t>
-  </si>
-  <si>
-    <t xml:space="preserve">辽宁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">吉林</t>
-  </si>
-  <si>
-    <t xml:space="preserve">黑龙江</t>
-  </si>
-  <si>
-    <t xml:space="preserve">上海</t>
-  </si>
-  <si>
-    <t xml:space="preserve">江苏</t>
-  </si>
-  <si>
-    <t xml:space="preserve">浙江</t>
-  </si>
-  <si>
-    <t xml:space="preserve">安徽</t>
-  </si>
-  <si>
-    <t xml:space="preserve">福建</t>
-  </si>
-  <si>
-    <t xml:space="preserve">江西</t>
-  </si>
-  <si>
-    <t xml:space="preserve">山东</t>
-  </si>
-  <si>
-    <t xml:space="preserve">河南</t>
-  </si>
-  <si>
-    <t xml:space="preserve">湖北</t>
-  </si>
-  <si>
-    <t xml:space="preserve">湖南</t>
-  </si>
-  <si>
-    <t xml:space="preserve">广东</t>
-  </si>
-  <si>
-    <t xml:space="preserve">广西</t>
-  </si>
-  <si>
-    <t xml:space="preserve">海南</t>
-  </si>
-  <si>
-    <t xml:space="preserve">重庆</t>
-  </si>
-  <si>
-    <t xml:space="preserve">四川</t>
-  </si>
-  <si>
-    <t xml:space="preserve">贵州</t>
-  </si>
-  <si>
-    <t xml:space="preserve">云南</t>
-  </si>
-  <si>
-    <t xml:space="preserve">西藏</t>
-  </si>
-  <si>
-    <t xml:space="preserve">陕西</t>
-  </si>
-  <si>
-    <t xml:space="preserve">甘肃</t>
-  </si>
-  <si>
-    <t xml:space="preserve">青海</t>
-  </si>
-  <si>
-    <t xml:space="preserve">宁夏</t>
-  </si>
-  <si>
-    <t xml:space="preserve">新疆</t>
   </si>
   <si>
     <t xml:space="preserve">大中型拖拉机</t>
@@ -149,6 +47,99 @@
     <t xml:space="preserve">v7_sctj_nyjx_dztlj</t>
   </si>
   <si>
+    <t xml:space="preserve">北京</t>
+  </si>
+  <si>
+    <t xml:space="preserve">福建</t>
+  </si>
+  <si>
+    <t xml:space="preserve">甘肃</t>
+  </si>
+  <si>
+    <t xml:space="preserve">广东</t>
+  </si>
+  <si>
+    <t xml:space="preserve">广西</t>
+  </si>
+  <si>
+    <t xml:space="preserve">贵州</t>
+  </si>
+  <si>
+    <t xml:space="preserve">海南</t>
+  </si>
+  <si>
+    <t xml:space="preserve">河北</t>
+  </si>
+  <si>
+    <t xml:space="preserve">河南</t>
+  </si>
+  <si>
+    <t xml:space="preserve">黑龙江</t>
+  </si>
+  <si>
+    <t xml:space="preserve">湖北</t>
+  </si>
+  <si>
+    <t xml:space="preserve">湖南</t>
+  </si>
+  <si>
+    <t xml:space="preserve">吉林</t>
+  </si>
+  <si>
+    <t xml:space="preserve">江苏</t>
+  </si>
+  <si>
+    <t xml:space="preserve">江西</t>
+  </si>
+  <si>
+    <t xml:space="preserve">辽宁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">内蒙古</t>
+  </si>
+  <si>
+    <t xml:space="preserve">宁夏</t>
+  </si>
+  <si>
+    <t xml:space="preserve">青海</t>
+  </si>
+  <si>
+    <t xml:space="preserve">全国</t>
+  </si>
+  <si>
+    <t xml:space="preserve">山东</t>
+  </si>
+  <si>
+    <t xml:space="preserve">山西</t>
+  </si>
+  <si>
+    <t xml:space="preserve">陕西</t>
+  </si>
+  <si>
+    <t xml:space="preserve">上海</t>
+  </si>
+  <si>
+    <t xml:space="preserve">四川</t>
+  </si>
+  <si>
+    <t xml:space="preserve">天津</t>
+  </si>
+  <si>
+    <t xml:space="preserve">西藏</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新疆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">云南</t>
+  </si>
+  <si>
+    <t xml:space="preserve">浙江</t>
+  </si>
+  <si>
+    <t xml:space="preserve">重庆</t>
+  </si>
+  <si>
     <t xml:space="preserve">大中型拖拉机配套农具</t>
   </si>
   <si>
@@ -158,28 +149,25 @@
     <t xml:space="preserve">v7_sctj_nyjx_dztlj_pt</t>
   </si>
   <si>
-    <t xml:space="preserve">小型拖拉机</t>
+    <t xml:space="preserve">机播面积</t>
   </si>
   <si>
-    <t xml:space="preserve">v7_sctj_nyjx_xtlj</t>
+    <t xml:space="preserve">千公顷</t>
   </si>
   <si>
-    <t xml:space="preserve">农用水泵</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v7_sctj_nyjx_nysb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">联合收获机</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v7_sctj_nyjx_lhshj</t>
+    <t xml:space="preserve">v7_sctj_nyjx_jbmj</t>
   </si>
   <si>
     <t xml:space="preserve">机动脱粒机</t>
   </si>
   <si>
     <t xml:space="preserve">v7_sctj_nyjx_jdtlj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">机耕面积</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v7_sctj_nyjx_jgmj</t>
   </si>
   <si>
     <t xml:space="preserve">节水灌溉类机械</t>
@@ -191,25 +179,55 @@
     <t xml:space="preserve">v7_sctj_nyjx_jsgg</t>
   </si>
   <si>
-    <t xml:space="preserve">机耕面积</t>
-  </si>
-  <si>
-    <t xml:space="preserve">千公顷</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v7_sctj_nyjx_jgmj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">机播面积</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v7_sctj_nyjx_jbmj</t>
-  </si>
-  <si>
     <t xml:space="preserve">机收面积</t>
   </si>
   <si>
     <t xml:space="preserve">v7_sctj_nyjx_jsmj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">联合收获机</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v7_sctj_nyjx_lhshj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">农用水泵</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v7_sctj_nyjx_nysb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">农用排灌柴油机</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v7_sctj_nyjx_pgcyj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">农用排灌电动机</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v7_sctj_nyjx_pgddj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">小型拖拉机</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v7_sctj_nyjx_xtlj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">小型拖拉机配套农具</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v7_sctj_nyjx_xtlj_pt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">农业机械总动力</t>
+  </si>
+  <si>
+    <t xml:space="preserve">万千瓦</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v7_sctj_nyjx_zdl</t>
   </si>
 </sst>
 </file>
@@ -572,7 +590,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>100371.7</v>
+        <v>22.8</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -592,7 +610,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>125.7</v>
+        <v>0.5</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -612,7 +630,7 @@
         <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>348</v>
+        <v>0.5</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -632,7 +650,7 @@
         <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>7706.2</v>
+        <v>8.9</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -652,7 +670,7 @@
         <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>1441.1</v>
+        <v>2.4</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -672,7 +690,7 @@
         <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>3663.7</v>
+        <v>5.1</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -692,7 +710,7 @@
         <v>8</v>
       </c>
       <c r="D8" t="n">
-        <v>2243.7</v>
+        <v>1.8</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -712,7 +730,7 @@
         <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>3466</v>
+        <v>2</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
@@ -732,7 +750,7 @@
         <v>8</v>
       </c>
       <c r="D10" t="n">
-        <v>6084.7</v>
+        <v>27.3</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
@@ -752,7 +770,7 @@
         <v>8</v>
       </c>
       <c r="D11" t="n">
-        <v>94</v>
+        <v>35.3</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -772,7 +790,7 @@
         <v>8</v>
       </c>
       <c r="D12" t="n">
-        <v>5017.7</v>
+        <v>55.2</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
@@ -792,7 +810,7 @@
         <v>8</v>
       </c>
       <c r="D13" t="n">
-        <v>2009.3</v>
+        <v>16.2</v>
       </c>
       <c r="E13" t="s">
         <v>9</v>
@@ -812,7 +830,7 @@
         <v>8</v>
       </c>
       <c r="D14" t="n">
-        <v>6543.8</v>
+        <v>11.3</v>
       </c>
       <c r="E14" t="s">
         <v>9</v>
@@ -832,7 +850,7 @@
         <v>8</v>
       </c>
       <c r="D15" t="n">
-        <v>1228.3</v>
+        <v>31.6</v>
       </c>
       <c r="E15" t="s">
         <v>9</v>
@@ -852,7 +870,7 @@
         <v>8</v>
       </c>
       <c r="D16" t="n">
-        <v>2382</v>
+        <v>16.5</v>
       </c>
       <c r="E16" t="s">
         <v>9</v>
@@ -872,7 +890,7 @@
         <v>8</v>
       </c>
       <c r="D17" t="n">
-        <v>10415.2</v>
+        <v>3.8</v>
       </c>
       <c r="E17" t="s">
         <v>9</v>
@@ -892,7 +910,7 @@
         <v>8</v>
       </c>
       <c r="D18" t="n">
-        <v>10204.5</v>
+        <v>17</v>
       </c>
       <c r="E18" t="s">
         <v>9</v>
@@ -912,7 +930,7 @@
         <v>8</v>
       </c>
       <c r="D19" t="n">
-        <v>4424.6</v>
+        <v>31.6</v>
       </c>
       <c r="E19" t="s">
         <v>9</v>
@@ -932,7 +950,7 @@
         <v>8</v>
       </c>
       <c r="D20" t="n">
-        <v>6338.6</v>
+        <v>3.9</v>
       </c>
       <c r="E20" t="s">
         <v>9</v>
@@ -952,7 +970,7 @@
         <v>8</v>
       </c>
       <c r="D21" t="n">
-        <v>2429.9</v>
+        <v>1.2</v>
       </c>
       <c r="E21" t="s">
         <v>9</v>
@@ -972,7 +990,7 @@
         <v>8</v>
       </c>
       <c r="D22" t="n">
-        <v>3750.8</v>
+        <v>422</v>
       </c>
       <c r="E22" t="s">
         <v>9</v>
@@ -992,7 +1010,7 @@
         <v>8</v>
       </c>
       <c r="D23" t="n">
-        <v>565.8</v>
+        <v>47.9</v>
       </c>
       <c r="E23" t="s">
         <v>9</v>
@@ -1012,7 +1030,7 @@
         <v>8</v>
       </c>
       <c r="D24" t="n">
-        <v>1428.1</v>
+        <v>9.9</v>
       </c>
       <c r="E24" t="s">
         <v>9</v>
@@ -1032,7 +1050,7 @@
         <v>8</v>
       </c>
       <c r="D25" t="n">
-        <v>4603.9</v>
+        <v>9.8</v>
       </c>
       <c r="E25" t="s">
         <v>9</v>
@@ -1052,7 +1070,7 @@
         <v>8</v>
       </c>
       <c r="D26" t="n">
-        <v>2376.7</v>
+        <v>0.7</v>
       </c>
       <c r="E26" t="s">
         <v>9</v>
@@ -1072,7 +1090,7 @@
         <v>8</v>
       </c>
       <c r="D27" t="n">
-        <v>2693.5</v>
+        <v>7.4</v>
       </c>
       <c r="E27" t="s">
         <v>9</v>
@@ -1092,7 +1110,7 @@
         <v>8</v>
       </c>
       <c r="D28" t="n">
-        <v>545.8</v>
+        <v>1.4</v>
       </c>
       <c r="E28" t="s">
         <v>9</v>
@@ -1112,7 +1130,7 @@
         <v>8</v>
       </c>
       <c r="D29" t="n">
-        <v>2311.8</v>
+        <v>6.7</v>
       </c>
       <c r="E29" t="s">
         <v>9</v>
@@ -1132,7 +1150,7 @@
         <v>8</v>
       </c>
       <c r="D30" t="n">
-        <v>2102.8</v>
+        <v>33.6</v>
       </c>
       <c r="E30" t="s">
         <v>9</v>
@@ -1152,7 +1170,7 @@
         <v>8</v>
       </c>
       <c r="D31" t="n">
-        <v>472.1</v>
+        <v>7.9</v>
       </c>
       <c r="E31" t="s">
         <v>9</v>
@@ -1172,7 +1190,7 @@
         <v>8</v>
       </c>
       <c r="D32" t="n">
-        <v>621.9</v>
+        <v>1.3</v>
       </c>
       <c r="E32" t="s">
         <v>9</v>
@@ -1192,7 +1210,7 @@
         <v>8</v>
       </c>
       <c r="D33" t="n">
-        <v>2731.8</v>
+        <v>0.2</v>
       </c>
       <c r="E33" t="s">
         <v>9</v>
@@ -1212,7 +1230,7 @@
         <v>42</v>
       </c>
       <c r="D34" t="n">
-        <v>422</v>
+        <v>40.2</v>
       </c>
       <c r="E34" t="s">
         <v>43</v>
@@ -1232,7 +1250,7 @@
         <v>42</v>
       </c>
       <c r="D35" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="E35" t="s">
         <v>43</v>
@@ -1252,7 +1270,7 @@
         <v>42</v>
       </c>
       <c r="D36" t="n">
-        <v>1.4</v>
+        <v>0.3</v>
       </c>
       <c r="E36" t="s">
         <v>43</v>
@@ -1272,7 +1290,7 @@
         <v>42</v>
       </c>
       <c r="D37" t="n">
-        <v>27.3</v>
+        <v>6.6</v>
       </c>
       <c r="E37" t="s">
         <v>43</v>
@@ -1292,7 +1310,7 @@
         <v>42</v>
       </c>
       <c r="D38" t="n">
-        <v>9.9</v>
+        <v>2.1</v>
       </c>
       <c r="E38" t="s">
         <v>43</v>
@@ -1312,7 +1330,7 @@
         <v>42</v>
       </c>
       <c r="D39" t="n">
-        <v>31.6</v>
+        <v>3</v>
       </c>
       <c r="E39" t="s">
         <v>43</v>
@@ -1332,7 +1350,7 @@
         <v>42</v>
       </c>
       <c r="D40" t="n">
-        <v>17</v>
+        <v>0.2</v>
       </c>
       <c r="E40" t="s">
         <v>43</v>
@@ -1352,7 +1370,7 @@
         <v>42</v>
       </c>
       <c r="D41" t="n">
-        <v>31.6</v>
+        <v>1.5</v>
       </c>
       <c r="E41" t="s">
         <v>43</v>
@@ -1372,7 +1390,7 @@
         <v>42</v>
       </c>
       <c r="D42" t="n">
-        <v>55.2</v>
+        <v>40.6</v>
       </c>
       <c r="E42" t="s">
         <v>43</v>
@@ -1392,7 +1410,7 @@
         <v>42</v>
       </c>
       <c r="D43" t="n">
-        <v>0.7</v>
+        <v>63.2</v>
       </c>
       <c r="E43" t="s">
         <v>43</v>
@@ -1412,7 +1430,7 @@
         <v>42</v>
       </c>
       <c r="D44" t="n">
-        <v>16.5</v>
+        <v>41.6</v>
       </c>
       <c r="E44" t="s">
         <v>43</v>
@@ -1432,7 +1450,7 @@
         <v>42</v>
       </c>
       <c r="D45" t="n">
-        <v>1.3</v>
+        <v>18.4</v>
       </c>
       <c r="E45" t="s">
         <v>43</v>
@@ -1452,7 +1470,7 @@
         <v>42</v>
       </c>
       <c r="D46" t="n">
-        <v>22.8</v>
+        <v>4.3</v>
       </c>
       <c r="E46" t="s">
         <v>43</v>
@@ -1472,7 +1490,7 @@
         <v>42</v>
       </c>
       <c r="D47" t="n">
-        <v>0.5</v>
+        <v>12.4</v>
       </c>
       <c r="E47" t="s">
         <v>43</v>
@@ -1492,7 +1510,7 @@
         <v>42</v>
       </c>
       <c r="D48" t="n">
-        <v>3.8</v>
+        <v>25.8</v>
       </c>
       <c r="E48" t="s">
         <v>43</v>
@@ -1512,7 +1530,7 @@
         <v>42</v>
       </c>
       <c r="D49" t="n">
-        <v>47.9</v>
+        <v>3.3</v>
       </c>
       <c r="E49" t="s">
         <v>43</v>
@@ -1532,7 +1550,7 @@
         <v>42</v>
       </c>
       <c r="D50" t="n">
-        <v>35.3</v>
+        <v>16</v>
       </c>
       <c r="E50" t="s">
         <v>43</v>
@@ -1552,7 +1570,7 @@
         <v>42</v>
       </c>
       <c r="D51" t="n">
-        <v>16.2</v>
+        <v>17.9</v>
       </c>
       <c r="E51" t="s">
         <v>43</v>
@@ -1572,7 +1590,7 @@
         <v>42</v>
       </c>
       <c r="D52" t="n">
-        <v>11.3</v>
+        <v>2.5</v>
       </c>
       <c r="E52" t="s">
         <v>43</v>
@@ -1592,7 +1610,7 @@
         <v>42</v>
       </c>
       <c r="D53" t="n">
-        <v>2.4</v>
+        <v>0.9</v>
       </c>
       <c r="E53" t="s">
         <v>43</v>
@@ -1612,7 +1630,7 @@
         <v>42</v>
       </c>
       <c r="D54" t="n">
-        <v>5.1</v>
+        <v>422.6</v>
       </c>
       <c r="E54" t="s">
         <v>43</v>
@@ -1632,7 +1650,7 @@
         <v>42</v>
       </c>
       <c r="D55" t="n">
-        <v>2</v>
+        <v>58.4</v>
       </c>
       <c r="E55" t="s">
         <v>43</v>
@@ -1652,7 +1670,7 @@
         <v>42</v>
       </c>
       <c r="D56" t="n">
-        <v>0.2</v>
+        <v>8.9</v>
       </c>
       <c r="E56" t="s">
         <v>43</v>
@@ -1672,7 +1690,7 @@
         <v>42</v>
       </c>
       <c r="D57" t="n">
-        <v>7.4</v>
+        <v>11.5</v>
       </c>
       <c r="E57" t="s">
         <v>43</v>
@@ -1692,7 +1710,7 @@
         <v>42</v>
       </c>
       <c r="D58" t="n">
-        <v>1.8</v>
+        <v>0.4</v>
       </c>
       <c r="E58" t="s">
         <v>43</v>
@@ -1712,7 +1730,7 @@
         <v>42</v>
       </c>
       <c r="D59" t="n">
-        <v>7.9</v>
+        <v>2.3</v>
       </c>
       <c r="E59" t="s">
         <v>43</v>
@@ -1732,7 +1750,7 @@
         <v>42</v>
       </c>
       <c r="D60" t="n">
-        <v>6.7</v>
+        <v>1.9</v>
       </c>
       <c r="E60" t="s">
         <v>43</v>
@@ -1752,7 +1770,7 @@
         <v>42</v>
       </c>
       <c r="D61" t="n">
-        <v>9.8</v>
+        <v>0.1</v>
       </c>
       <c r="E61" t="s">
         <v>43</v>
@@ -1772,7 +1790,7 @@
         <v>42</v>
       </c>
       <c r="D62" t="n">
-        <v>8.9</v>
+        <v>34.2</v>
       </c>
       <c r="E62" t="s">
         <v>43</v>
@@ -1792,7 +1810,7 @@
         <v>42</v>
       </c>
       <c r="D63" t="n">
-        <v>1.2</v>
+        <v>3.5</v>
       </c>
       <c r="E63" t="s">
         <v>43</v>
@@ -1812,7 +1830,7 @@
         <v>42</v>
       </c>
       <c r="D64" t="n">
-        <v>3.9</v>
+        <v>0.6</v>
       </c>
       <c r="E64" t="s">
         <v>43</v>
@@ -1832,7 +1850,7 @@
         <v>42</v>
       </c>
       <c r="D65" t="n">
-        <v>33.6</v>
+        <v>0.2</v>
       </c>
       <c r="E65" t="s">
         <v>43</v>
@@ -1852,7 +1870,7 @@
         <v>45</v>
       </c>
       <c r="D66" t="n">
-        <v>422.6</v>
+        <v>5750.1</v>
       </c>
       <c r="E66" t="s">
         <v>46</v>
@@ -1872,7 +1890,7 @@
         <v>45</v>
       </c>
       <c r="D67" t="n">
-        <v>0.2</v>
+        <v>51.8</v>
       </c>
       <c r="E67" t="s">
         <v>46</v>
@@ -1892,7 +1910,7 @@
         <v>45</v>
       </c>
       <c r="D68" t="n">
-        <v>1.9</v>
+        <v>174.7</v>
       </c>
       <c r="E68" t="s">
         <v>46</v>
@@ -1912,7 +1930,7 @@
         <v>45</v>
       </c>
       <c r="D69" t="n">
-        <v>40.6</v>
+        <v>1806</v>
       </c>
       <c r="E69" t="s">
         <v>46</v>
@@ -1932,7 +1950,7 @@
         <v>45</v>
       </c>
       <c r="D70" t="n">
-        <v>8.9</v>
+        <v>368.3</v>
       </c>
       <c r="E70" t="s">
         <v>46</v>
@@ -1952,7 +1970,7 @@
         <v>45</v>
       </c>
       <c r="D71" t="n">
-        <v>17.9</v>
+        <v>1276</v>
       </c>
       <c r="E71" t="s">
         <v>46</v>
@@ -1972,7 +1990,7 @@
         <v>45</v>
       </c>
       <c r="D72" t="n">
-        <v>16</v>
+        <v>120.6</v>
       </c>
       <c r="E72" t="s">
         <v>46</v>
@@ -1992,7 +2010,7 @@
         <v>45</v>
       </c>
       <c r="D73" t="n">
-        <v>12.4</v>
+        <v>5.9</v>
       </c>
       <c r="E73" t="s">
         <v>46</v>
@@ -2012,7 +2030,7 @@
         <v>45</v>
       </c>
       <c r="D74" t="n">
-        <v>41.6</v>
+        <v>6747.9</v>
       </c>
       <c r="E74" t="s">
         <v>46</v>
@@ -2032,7 +2050,7 @@
         <v>45</v>
       </c>
       <c r="D75" t="n">
-        <v>0.4</v>
+        <v>11561.8</v>
       </c>
       <c r="E75" t="s">
         <v>46</v>
@@ -2052,7 +2070,7 @@
         <v>45</v>
       </c>
       <c r="D76" t="n">
-        <v>25.8</v>
+        <v>14251.6</v>
       </c>
       <c r="E76" t="s">
         <v>46</v>
@@ -2072,7 +2090,7 @@
         <v>45</v>
       </c>
       <c r="D77" t="n">
-        <v>0.6</v>
+        <v>3035.9</v>
       </c>
       <c r="E77" t="s">
         <v>46</v>
@@ -2092,7 +2110,7 @@
         <v>45</v>
       </c>
       <c r="D78" t="n">
-        <v>40.2</v>
+        <v>1864</v>
       </c>
       <c r="E78" t="s">
         <v>46</v>
@@ -2112,7 +2130,7 @@
         <v>45</v>
       </c>
       <c r="D79" t="n">
-        <v>0.3</v>
+        <v>5449</v>
       </c>
       <c r="E79" t="s">
         <v>46</v>
@@ -2132,7 +2150,7 @@
         <v>45</v>
       </c>
       <c r="D80" t="n">
-        <v>3.3</v>
+        <v>4587</v>
       </c>
       <c r="E80" t="s">
         <v>46</v>
@@ -2152,7 +2170,7 @@
         <v>45</v>
       </c>
       <c r="D81" t="n">
-        <v>58.4</v>
+        <v>1427.4</v>
       </c>
       <c r="E81" t="s">
         <v>46</v>
@@ -2172,7 +2190,7 @@
         <v>45</v>
       </c>
       <c r="D82" t="n">
-        <v>63.2</v>
+        <v>3947.6</v>
       </c>
       <c r="E82" t="s">
         <v>46</v>
@@ -2192,7 +2210,7 @@
         <v>45</v>
       </c>
       <c r="D83" t="n">
-        <v>18.4</v>
+        <v>7824.3</v>
       </c>
       <c r="E83" t="s">
         <v>46</v>
@@ -2212,7 +2230,7 @@
         <v>45</v>
       </c>
       <c r="D84" t="n">
-        <v>4.3</v>
+        <v>717.5</v>
       </c>
       <c r="E84" t="s">
         <v>46</v>
@@ -2232,7 +2250,7 @@
         <v>45</v>
       </c>
       <c r="D85" t="n">
-        <v>2.1</v>
+        <v>302.8</v>
       </c>
       <c r="E85" t="s">
         <v>46</v>
@@ -2252,7 +2270,7 @@
         <v>45</v>
       </c>
       <c r="D86" t="n">
-        <v>3</v>
+        <v>94440.6</v>
       </c>
       <c r="E86" t="s">
         <v>46</v>
@@ -2272,7 +2290,7 @@
         <v>45</v>
       </c>
       <c r="D87" t="n">
-        <v>1.5</v>
+        <v>9649.2</v>
       </c>
       <c r="E87" t="s">
         <v>46</v>
@@ -2292,7 +2310,7 @@
         <v>45</v>
       </c>
       <c r="D88" t="n">
-        <v>0.2</v>
+        <v>2634.3</v>
       </c>
       <c r="E88" t="s">
         <v>46</v>
@@ -2312,7 +2330,7 @@
         <v>45</v>
       </c>
       <c r="D89" t="n">
-        <v>2.3</v>
+        <v>2064.5</v>
       </c>
       <c r="E89" t="s">
         <v>46</v>
@@ -2332,7 +2350,7 @@
         <v>45</v>
       </c>
       <c r="D90" t="n">
-        <v>0.2</v>
+        <v>85.6</v>
       </c>
       <c r="E90" t="s">
         <v>46</v>
@@ -2352,7 +2370,7 @@
         <v>45</v>
       </c>
       <c r="D91" t="n">
-        <v>3.5</v>
+        <v>1434.2</v>
       </c>
       <c r="E91" t="s">
         <v>46</v>
@@ -2372,7 +2390,7 @@
         <v>45</v>
       </c>
       <c r="D92" t="n">
-        <v>0.1</v>
+        <v>397.1</v>
       </c>
       <c r="E92" t="s">
         <v>46</v>
@@ -2392,7 +2410,7 @@
         <v>45</v>
       </c>
       <c r="D93" t="n">
-        <v>11.5</v>
+        <v>135.1</v>
       </c>
       <c r="E93" t="s">
         <v>46</v>
@@ -2412,7 +2430,7 @@
         <v>45</v>
       </c>
       <c r="D94" t="n">
-        <v>6.6</v>
+        <v>5970.9</v>
       </c>
       <c r="E94" t="s">
         <v>46</v>
@@ -2432,7 +2450,7 @@
         <v>45</v>
       </c>
       <c r="D95" t="n">
-        <v>0.9</v>
+        <v>238.5</v>
       </c>
       <c r="E95" t="s">
         <v>46</v>
@@ -2452,7 +2470,7 @@
         <v>45</v>
       </c>
       <c r="D96" t="n">
-        <v>2.5</v>
+        <v>349.3</v>
       </c>
       <c r="E96" t="s">
         <v>46</v>
@@ -2472,7 +2490,7 @@
         <v>45</v>
       </c>
       <c r="D97" t="n">
-        <v>34.2</v>
+        <v>211.6</v>
       </c>
       <c r="E97" t="s">
         <v>46</v>
@@ -2492,10 +2510,10 @@
         <v>48</v>
       </c>
       <c r="D98" t="n">
-        <v>1818.3</v>
+        <v>33.3</v>
       </c>
       <c r="E98" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F98" t="s">
         <v>49</v>
@@ -2512,10 +2530,10 @@
         <v>48</v>
       </c>
       <c r="D99" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="E99" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F99" t="s">
         <v>49</v>
@@ -2532,10 +2550,10 @@
         <v>48</v>
       </c>
       <c r="D100" t="n">
-        <v>0.3</v>
+        <v>9.8</v>
       </c>
       <c r="E100" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F100" t="s">
         <v>49</v>
@@ -2552,10 +2570,10 @@
         <v>48</v>
       </c>
       <c r="D101" t="n">
-        <v>122.3</v>
+        <v>28.6</v>
       </c>
       <c r="E101" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F101" t="s">
         <v>49</v>
@@ -2572,10 +2590,10 @@
         <v>48</v>
       </c>
       <c r="D102" t="n">
-        <v>28.1</v>
+        <v>54.6</v>
       </c>
       <c r="E102" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F102" t="s">
         <v>49</v>
@@ -2592,10 +2610,10 @@
         <v>48</v>
       </c>
       <c r="D103" t="n">
-        <v>85.7</v>
+        <v>99.3</v>
       </c>
       <c r="E103" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F103" t="s">
         <v>49</v>
@@ -2612,10 +2630,10 @@
         <v>48</v>
       </c>
       <c r="D104" t="n">
-        <v>40.8</v>
+        <v>76.7</v>
       </c>
       <c r="E104" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F104" t="s">
         <v>49</v>
@@ -2632,10 +2650,10 @@
         <v>48</v>
       </c>
       <c r="D105" t="n">
-        <v>90.2</v>
+        <v>5</v>
       </c>
       <c r="E105" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F105" t="s">
         <v>49</v>
@@ -2652,10 +2670,10 @@
         <v>48</v>
       </c>
       <c r="D106" t="n">
-        <v>105.7</v>
+        <v>16</v>
       </c>
       <c r="E106" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F106" t="s">
         <v>49</v>
@@ -2672,10 +2690,10 @@
         <v>48</v>
       </c>
       <c r="D107" t="n">
-        <v>0.3</v>
+        <v>51.8</v>
       </c>
       <c r="E107" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F107" t="s">
         <v>49</v>
@@ -2692,10 +2710,10 @@
         <v>48</v>
       </c>
       <c r="D108" t="n">
-        <v>67.4</v>
+        <v>16</v>
       </c>
       <c r="E108" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F108" t="s">
         <v>49</v>
@@ -2712,10 +2730,10 @@
         <v>48</v>
       </c>
       <c r="D109" t="n">
-        <v>10.3</v>
+        <v>40.6</v>
       </c>
       <c r="E109" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F109" t="s">
         <v>49</v>
@@ -2732,10 +2750,10 @@
         <v>48</v>
       </c>
       <c r="D110" t="n">
-        <v>207.9</v>
+        <v>118.9</v>
       </c>
       <c r="E110" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F110" t="s">
         <v>49</v>
@@ -2752,10 +2770,10 @@
         <v>48</v>
       </c>
       <c r="D111" t="n">
-        <v>8.8</v>
+        <v>6</v>
       </c>
       <c r="E111" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F111" t="s">
         <v>49</v>
@@ -2772,10 +2790,10 @@
         <v>48</v>
       </c>
       <c r="D112" t="n">
-        <v>34.1</v>
+        <v>7.7</v>
       </c>
       <c r="E112" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F112" t="s">
         <v>49</v>
@@ -2792,10 +2810,10 @@
         <v>48</v>
       </c>
       <c r="D113" t="n">
-        <v>201.3</v>
+        <v>27.4</v>
       </c>
       <c r="E113" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F113" t="s">
         <v>49</v>
@@ -2812,10 +2830,10 @@
         <v>48</v>
       </c>
       <c r="D114" t="n">
-        <v>318.5</v>
+        <v>13.9</v>
       </c>
       <c r="E114" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F114" t="s">
         <v>49</v>
@@ -2832,10 +2850,10 @@
         <v>48</v>
       </c>
       <c r="D115" t="n">
-        <v>116.5</v>
+        <v>12.8</v>
       </c>
       <c r="E115" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F115" t="s">
         <v>49</v>
@@ -2852,10 +2870,10 @@
         <v>48</v>
       </c>
       <c r="D116" t="n">
-        <v>28.4</v>
+        <v>2</v>
       </c>
       <c r="E116" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F116" t="s">
         <v>49</v>
@@ -2872,10 +2890,10 @@
         <v>48</v>
       </c>
       <c r="D117" t="n">
-        <v>32</v>
+        <v>4.4</v>
       </c>
       <c r="E117" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F117" t="s">
         <v>49</v>
@@ -2892,10 +2910,10 @@
         <v>48</v>
       </c>
       <c r="D118" t="n">
-        <v>51.8</v>
+        <v>1039.5</v>
       </c>
       <c r="E118" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F118" t="s">
         <v>49</v>
@@ -2912,10 +2930,10 @@
         <v>48</v>
       </c>
       <c r="D119" t="n">
-        <v>6.7</v>
+        <v>39.7</v>
       </c>
       <c r="E119" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F119" t="s">
         <v>49</v>
@@ -2932,10 +2950,10 @@
         <v>48</v>
       </c>
       <c r="D120" t="n">
-        <v>0.5</v>
+        <v>5.2</v>
       </c>
       <c r="E120" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F120" t="s">
         <v>49</v>
@@ -2952,10 +2970,10 @@
         <v>48</v>
       </c>
       <c r="D121" t="n">
-        <v>15.3</v>
+        <v>49.3</v>
       </c>
       <c r="E121" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F121" t="s">
         <v>49</v>
@@ -2971,11 +2989,9 @@
       <c r="C122" t="s">
         <v>48</v>
       </c>
-      <c r="D122" t="n">
-        <v>12.4</v>
-      </c>
+      <c r="D122"/>
       <c r="E122" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F122" t="s">
         <v>49</v>
@@ -2992,10 +3008,10 @@
         <v>48</v>
       </c>
       <c r="D123" t="n">
-        <v>30.5</v>
+        <v>168.8</v>
       </c>
       <c r="E123" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F123" t="s">
         <v>49</v>
@@ -3012,10 +3028,10 @@
         <v>48</v>
       </c>
       <c r="D124" t="n">
-        <v>20.6</v>
+        <v>1.7</v>
       </c>
       <c r="E124" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F124" t="s">
         <v>49</v>
@@ -3031,11 +3047,9 @@
       <c r="C125" t="s">
         <v>48</v>
       </c>
-      <c r="D125" t="n">
-        <v>22</v>
-      </c>
+      <c r="D125"/>
       <c r="E125" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F125" t="s">
         <v>49</v>
@@ -3052,10 +3066,10 @@
         <v>48</v>
       </c>
       <c r="D126" t="n">
-        <v>73.5</v>
+        <v>5.6</v>
       </c>
       <c r="E126" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F126" t="s">
         <v>49</v>
@@ -3072,10 +3086,10 @@
         <v>48</v>
       </c>
       <c r="D127" t="n">
-        <v>25.8</v>
+        <v>48.4</v>
       </c>
       <c r="E127" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F127" t="s">
         <v>49</v>
@@ -3092,10 +3106,10 @@
         <v>48</v>
       </c>
       <c r="D128" t="n">
-        <v>17.3</v>
+        <v>17.5</v>
       </c>
       <c r="E128" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F128" t="s">
         <v>49</v>
@@ -3112,10 +3126,10 @@
         <v>48</v>
       </c>
       <c r="D129" t="n">
-        <v>43.2</v>
+        <v>72.5</v>
       </c>
       <c r="E129" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F129" t="s">
         <v>49</v>
@@ -3132,10 +3146,10 @@
         <v>50</v>
       </c>
       <c r="D130" t="n">
-        <v>2289.2</v>
+        <v>7489.5</v>
       </c>
       <c r="E130" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F130" t="s">
         <v>51</v>
@@ -3152,10 +3166,10 @@
         <v>50</v>
       </c>
       <c r="D131" t="n">
-        <v>2.9</v>
+        <v>20.1</v>
       </c>
       <c r="E131" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F131" t="s">
         <v>51</v>
@@ -3172,10 +3186,10 @@
         <v>50</v>
       </c>
       <c r="D132" t="n">
-        <v>8.3</v>
+        <v>901.6</v>
       </c>
       <c r="E132" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F132" t="s">
         <v>51</v>
@@ -3192,10 +3206,10 @@
         <v>50</v>
       </c>
       <c r="D133" t="n">
-        <v>155.2</v>
+        <v>3014.3</v>
       </c>
       <c r="E133" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F133" t="s">
         <v>51</v>
@@ -3212,10 +3226,10 @@
         <v>50</v>
       </c>
       <c r="D134" t="n">
-        <v>10.3</v>
+        <v>3614.8</v>
       </c>
       <c r="E134" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F134" t="s">
         <v>51</v>
@@ -3232,10 +3246,10 @@
         <v>50</v>
       </c>
       <c r="D135" t="n">
-        <v>43.4</v>
+        <v>5148.9</v>
       </c>
       <c r="E135" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F135" t="s">
         <v>51</v>
@@ -3252,10 +3266,10 @@
         <v>50</v>
       </c>
       <c r="D136" t="n">
-        <v>116.3</v>
+        <v>3398.3</v>
       </c>
       <c r="E136" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F136" t="s">
         <v>51</v>
@@ -3272,10 +3286,10 @@
         <v>50</v>
       </c>
       <c r="D137" t="n">
-        <v>60.5</v>
+        <v>404</v>
       </c>
       <c r="E137" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F137" t="s">
         <v>51</v>
@@ -3292,10 +3306,10 @@
         <v>50</v>
       </c>
       <c r="D138" t="n">
-        <v>48.3</v>
+        <v>4984.5</v>
       </c>
       <c r="E138" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F138" t="s">
         <v>51</v>
@@ -3311,9 +3325,11 @@
       <c r="C139" t="s">
         <v>50</v>
       </c>
-      <c r="D139"/>
+      <c r="D139" t="n">
+        <v>9614.6</v>
+      </c>
       <c r="E139" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F139" t="s">
         <v>51</v>
@@ -3330,10 +3346,10 @@
         <v>50</v>
       </c>
       <c r="D140" t="n">
-        <v>67.5</v>
+        <v>14211.3</v>
       </c>
       <c r="E140" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F140" t="s">
         <v>51</v>
@@ -3350,10 +3366,10 @@
         <v>50</v>
       </c>
       <c r="D141" t="n">
-        <v>76.9</v>
+        <v>6065</v>
       </c>
       <c r="E141" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F141" t="s">
         <v>51</v>
@@ -3370,10 +3386,10 @@
         <v>50</v>
       </c>
       <c r="D142" t="n">
-        <v>178.9</v>
+        <v>6459.1</v>
       </c>
       <c r="E142" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F142" t="s">
         <v>51</v>
@@ -3390,10 +3406,10 @@
         <v>50</v>
       </c>
       <c r="D143" t="n">
-        <v>20.9</v>
+        <v>4911.3</v>
       </c>
       <c r="E143" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F143" t="s">
         <v>51</v>
@@ -3410,10 +3426,10 @@
         <v>50</v>
       </c>
       <c r="D144" t="n">
-        <v>47.5</v>
+        <v>6204.1</v>
       </c>
       <c r="E144" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F144" t="s">
         <v>51</v>
@@ -3430,10 +3446,10 @@
         <v>50</v>
       </c>
       <c r="D145" t="n">
-        <v>294.6</v>
+        <v>4347.3</v>
       </c>
       <c r="E145" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F145" t="s">
         <v>51</v>
@@ -3450,10 +3466,10 @@
         <v>50</v>
       </c>
       <c r="D146" t="n">
-        <v>219.5</v>
+        <v>4309.3</v>
       </c>
       <c r="E146" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F146" t="s">
         <v>51</v>
@@ -3470,10 +3486,10 @@
         <v>50</v>
       </c>
       <c r="D147" t="n">
-        <v>109</v>
+        <v>6882</v>
       </c>
       <c r="E147" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F147" t="s">
         <v>51</v>
@@ -3490,10 +3506,10 @@
         <v>50</v>
       </c>
       <c r="D148" t="n">
-        <v>235.1</v>
+        <v>932.3</v>
       </c>
       <c r="E148" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F148" t="s">
         <v>51</v>
@@ -3510,10 +3526,10 @@
         <v>50</v>
       </c>
       <c r="D149" t="n">
-        <v>77.1</v>
+        <v>404.2</v>
       </c>
       <c r="E149" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F149" t="s">
         <v>51</v>
@@ -3530,10 +3546,10 @@
         <v>50</v>
       </c>
       <c r="D150" t="n">
-        <v>96.2</v>
+        <v>123611.1</v>
       </c>
       <c r="E150" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F150" t="s">
         <v>51</v>
@@ -3550,10 +3566,10 @@
         <v>50</v>
       </c>
       <c r="D151" t="n">
-        <v>17.3</v>
+        <v>6426</v>
       </c>
       <c r="E151" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F151" t="s">
         <v>51</v>
@@ -3570,10 +3586,10 @@
         <v>50</v>
       </c>
       <c r="D152" t="n">
-        <v>94.2</v>
+        <v>2669.8</v>
       </c>
       <c r="E152" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F152" t="s">
         <v>51</v>
@@ -3590,10 +3606,10 @@
         <v>50</v>
       </c>
       <c r="D153" t="n">
-        <v>132.2</v>
+        <v>2848.1</v>
       </c>
       <c r="E153" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F153" t="s">
         <v>51</v>
@@ -3610,10 +3626,10 @@
         <v>50</v>
       </c>
       <c r="D154" t="n">
-        <v>61.5</v>
+        <v>280.1</v>
       </c>
       <c r="E154" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F154" t="s">
         <v>51</v>
@@ -3630,10 +3646,10 @@
         <v>50</v>
       </c>
       <c r="D155" t="n">
-        <v>57.1</v>
+        <v>5142.3</v>
       </c>
       <c r="E155" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F155" t="s">
         <v>51</v>
@@ -3650,10 +3666,10 @@
         <v>50</v>
       </c>
       <c r="D156" t="n">
-        <v>0.6</v>
+        <v>308.4</v>
       </c>
       <c r="E156" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F156" t="s">
         <v>51</v>
@@ -3670,10 +3686,10 @@
         <v>50</v>
       </c>
       <c r="D157" t="n">
-        <v>34.1</v>
+        <v>157.1</v>
       </c>
       <c r="E157" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F157" t="s">
         <v>51</v>
@@ -3690,10 +3706,10 @@
         <v>50</v>
       </c>
       <c r="D158" t="n">
-        <v>12.7</v>
+        <v>6018.3</v>
       </c>
       <c r="E158" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F158" t="s">
         <v>51</v>
@@ -3710,10 +3726,10 @@
         <v>50</v>
       </c>
       <c r="D159" t="n">
-        <v>0.2</v>
+        <v>2919.1</v>
       </c>
       <c r="E159" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F159" t="s">
         <v>51</v>
@@ -3730,10 +3746,10 @@
         <v>50</v>
       </c>
       <c r="D160" t="n">
-        <v>3.6</v>
+        <v>1351.8</v>
       </c>
       <c r="E160" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F160" t="s">
         <v>51</v>
@@ -3750,10 +3766,10 @@
         <v>50</v>
       </c>
       <c r="D161" t="n">
-        <v>7.4</v>
+        <v>2173.6</v>
       </c>
       <c r="E161" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F161" t="s">
         <v>51</v>
@@ -3770,13 +3786,13 @@
         <v>52</v>
       </c>
       <c r="D162" t="n">
-        <v>205.9</v>
+        <v>21.2</v>
       </c>
       <c r="E162" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F162" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="163">
@@ -3790,13 +3806,13 @@
         <v>52</v>
       </c>
       <c r="D163" t="n">
-        <v>0.1</v>
+        <v>1.5</v>
       </c>
       <c r="E163" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F163" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="164">
@@ -3810,13 +3826,13 @@
         <v>52</v>
       </c>
       <c r="D164" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="E164" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F164" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="165">
@@ -3830,13 +3846,13 @@
         <v>52</v>
       </c>
       <c r="D165" t="n">
-        <v>16.1</v>
+        <v>2.4</v>
       </c>
       <c r="E165" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F165" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="166">
@@ -3850,13 +3866,13 @@
         <v>52</v>
       </c>
       <c r="D166" t="n">
-        <v>3.1</v>
+        <v>13.9</v>
       </c>
       <c r="E166" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F166" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="167">
@@ -3870,13 +3886,13 @@
         <v>52</v>
       </c>
       <c r="D167" t="n">
-        <v>3.9</v>
+        <v>13.6</v>
       </c>
       <c r="E167" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F167" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="168">
@@ -3890,13 +3906,13 @@
         <v>52</v>
       </c>
       <c r="D168" t="n">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="E168" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F168" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="169">
@@ -3910,13 +3926,13 @@
         <v>52</v>
       </c>
       <c r="D169" t="n">
-        <v>9.1</v>
+        <v>1.3</v>
       </c>
       <c r="E169" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F169" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="170">
@@ -3930,13 +3946,13 @@
         <v>52</v>
       </c>
       <c r="D170" t="n">
-        <v>15.1</v>
+        <v>5.8</v>
       </c>
       <c r="E170" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F170" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="171">
@@ -3950,13 +3966,13 @@
         <v>52</v>
       </c>
       <c r="D171" t="n">
-        <v>0.2</v>
+        <v>22.7</v>
       </c>
       <c r="E171" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F171" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="172">
@@ -3970,13 +3986,13 @@
         <v>52</v>
       </c>
       <c r="D172" t="n">
-        <v>17.7</v>
+        <v>5.4</v>
       </c>
       <c r="E172" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F172" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="173">
@@ -3990,13 +4006,13 @@
         <v>52</v>
       </c>
       <c r="D173" t="n">
-        <v>1.8</v>
+        <v>11.7</v>
       </c>
       <c r="E173" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F173" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="174">
@@ -4010,13 +4026,13 @@
         <v>52</v>
       </c>
       <c r="D174" t="n">
-        <v>21.5</v>
+        <v>9.3</v>
       </c>
       <c r="E174" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F174" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="175">
@@ -4030,13 +4046,13 @@
         <v>52</v>
       </c>
       <c r="D175" t="n">
-        <v>1</v>
+        <v>4.8</v>
       </c>
       <c r="E175" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F175" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="176">
@@ -4050,13 +4066,13 @@
         <v>52</v>
       </c>
       <c r="D176" t="n">
-        <v>8.2</v>
+        <v>7.6</v>
       </c>
       <c r="E176" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F176" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="177">
@@ -4070,13 +4086,13 @@
         <v>52</v>
       </c>
       <c r="D177" t="n">
-        <v>31.5</v>
+        <v>13.7</v>
       </c>
       <c r="E177" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F177" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="178">
@@ -4090,13 +4106,13 @@
         <v>52</v>
       </c>
       <c r="D178" t="n">
-        <v>28.8</v>
+        <v>12.5</v>
       </c>
       <c r="E178" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F178" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="179">
@@ -4110,13 +4126,13 @@
         <v>52</v>
       </c>
       <c r="D179" t="n">
-        <v>10.2</v>
+        <v>7.9</v>
       </c>
       <c r="E179" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F179" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="180">
@@ -4130,13 +4146,13 @@
         <v>52</v>
       </c>
       <c r="D180" t="n">
-        <v>13</v>
+        <v>0.8</v>
       </c>
       <c r="E180" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F180" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="181">
@@ -4150,13 +4166,13 @@
         <v>52</v>
       </c>
       <c r="D181" t="n">
-        <v>2.8</v>
+        <v>0.2</v>
       </c>
       <c r="E181" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F181" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="182">
@@ -4170,13 +4186,13 @@
         <v>52</v>
       </c>
       <c r="D182" t="n">
-        <v>3.6</v>
+        <v>240.2</v>
       </c>
       <c r="E182" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F182" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="183">
@@ -4190,13 +4206,13 @@
         <v>52</v>
       </c>
       <c r="D183" t="n">
-        <v>0.5</v>
+        <v>53.3</v>
       </c>
       <c r="E183" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F183" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="184">
@@ -4210,13 +4226,13 @@
         <v>52</v>
       </c>
       <c r="D184" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="E184" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F184" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="185">
@@ -4230,13 +4246,13 @@
         <v>52</v>
       </c>
       <c r="D185" t="n">
-        <v>3.7</v>
+        <v>6.1</v>
       </c>
       <c r="E185" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F185" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="186">
@@ -4250,13 +4266,13 @@
         <v>52</v>
       </c>
       <c r="D186" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="E186" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F186" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="187">
@@ -4270,13 +4286,13 @@
         <v>52</v>
       </c>
       <c r="D187" t="n">
-        <v>0.9</v>
+        <v>3.4</v>
       </c>
       <c r="E187" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F187" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="188">
@@ -4290,13 +4306,13 @@
         <v>52</v>
       </c>
       <c r="D188" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="E188" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F188" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="189">
@@ -4309,14 +4325,12 @@
       <c r="C189" t="s">
         <v>52</v>
       </c>
-      <c r="D189" t="n">
-        <v>4.2</v>
-      </c>
+      <c r="D189"/>
       <c r="E189" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F189" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="190">
@@ -4330,13 +4344,13 @@
         <v>52</v>
       </c>
       <c r="D190" t="n">
-        <v>1.1</v>
+        <v>6.3</v>
       </c>
       <c r="E190" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F190" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="191">
@@ -4350,13 +4364,13 @@
         <v>52</v>
       </c>
       <c r="D191" t="n">
-        <v>0.3</v>
+        <v>5.4</v>
       </c>
       <c r="E191" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F191" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="192">
@@ -4370,13 +4384,13 @@
         <v>52</v>
       </c>
       <c r="D192" t="n">
-        <v>0.9</v>
+        <v>3</v>
       </c>
       <c r="E192" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F192" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="193">
@@ -4390,13 +4404,13 @@
         <v>52</v>
       </c>
       <c r="D193" t="n">
-        <v>1.3</v>
+        <v>0.2</v>
       </c>
       <c r="E193" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F193" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="194">
@@ -4407,16 +4421,16 @@
         <v>7</v>
       </c>
       <c r="C194" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D194" t="n">
-        <v>1039.5</v>
+        <v>7248.9</v>
       </c>
       <c r="E194" t="s">
         <v>46</v>
       </c>
       <c r="F194" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="195">
@@ -4427,16 +4441,16 @@
         <v>7</v>
       </c>
       <c r="C195" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D195" t="n">
-        <v>0.4</v>
+        <v>42.1</v>
       </c>
       <c r="E195" t="s">
         <v>46</v>
       </c>
       <c r="F195" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="196">
@@ -4447,16 +4461,16 @@
         <v>7</v>
       </c>
       <c r="C196" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D196" t="n">
-        <v>1.7</v>
+        <v>509.9</v>
       </c>
       <c r="E196" t="s">
         <v>46</v>
       </c>
       <c r="F196" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="197">
@@ -4467,16 +4481,16 @@
         <v>7</v>
       </c>
       <c r="C197" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D197" t="n">
-        <v>16</v>
+        <v>1388.7</v>
       </c>
       <c r="E197" t="s">
         <v>46</v>
       </c>
       <c r="F197" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="198">
@@ -4487,16 +4501,16 @@
         <v>7</v>
       </c>
       <c r="C198" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D198" t="n">
-        <v>5.2</v>
+        <v>1747.7</v>
       </c>
       <c r="E198" t="s">
         <v>46</v>
       </c>
       <c r="F198" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="199">
@@ -4507,16 +4521,16 @@
         <v>7</v>
       </c>
       <c r="C199" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D199" t="n">
-        <v>12.8</v>
+        <v>2946.3</v>
       </c>
       <c r="E199" t="s">
         <v>46</v>
       </c>
       <c r="F199" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="200">
@@ -4527,16 +4541,16 @@
         <v>7</v>
       </c>
       <c r="C200" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D200" t="n">
-        <v>13.9</v>
+        <v>620.3</v>
       </c>
       <c r="E200" t="s">
         <v>46</v>
       </c>
       <c r="F200" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="201">
@@ -4547,16 +4561,16 @@
         <v>7</v>
       </c>
       <c r="C201" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D201" t="n">
-        <v>6</v>
+        <v>225.5</v>
       </c>
       <c r="E201" t="s">
         <v>46</v>
       </c>
       <c r="F201" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="202">
@@ -4567,16 +4581,16 @@
         <v>7</v>
       </c>
       <c r="C202" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D202" t="n">
-        <v>16</v>
+        <v>5815.8</v>
       </c>
       <c r="E202" t="s">
         <v>46</v>
       </c>
       <c r="F202" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="203">
@@ -4587,16 +4601,16 @@
         <v>7</v>
       </c>
       <c r="C203" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D203" t="n">
-        <v>0</v>
+        <v>11189.8</v>
       </c>
       <c r="E203" t="s">
         <v>46</v>
       </c>
       <c r="F203" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="204">
@@ -4607,16 +4621,16 @@
         <v>7</v>
       </c>
       <c r="C204" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D204" t="n">
-        <v>7.7</v>
+        <v>13812.8</v>
       </c>
       <c r="E204" t="s">
         <v>46</v>
       </c>
       <c r="F204" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="205">
@@ -4627,16 +4641,16 @@
         <v>7</v>
       </c>
       <c r="C205" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D205" t="n">
-        <v>17.5</v>
+        <v>4569.2</v>
       </c>
       <c r="E205" t="s">
         <v>46</v>
       </c>
       <c r="F205" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="206">
@@ -4647,16 +4661,16 @@
         <v>7</v>
       </c>
       <c r="C206" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D206" t="n">
-        <v>33.3</v>
+        <v>4725.4</v>
       </c>
       <c r="E206" t="s">
         <v>46</v>
       </c>
       <c r="F206" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="207">
@@ -4667,16 +4681,16 @@
         <v>7</v>
       </c>
       <c r="C207" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D207" t="n">
-        <v>9.8</v>
+        <v>4563.1</v>
       </c>
       <c r="E207" t="s">
         <v>46</v>
       </c>
       <c r="F207" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="208">
@@ -4687,16 +4701,16 @@
         <v>7</v>
       </c>
       <c r="C208" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D208" t="n">
-        <v>27.4</v>
+        <v>5097</v>
       </c>
       <c r="E208" t="s">
         <v>46</v>
       </c>
       <c r="F208" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="209">
@@ -4707,16 +4721,16 @@
         <v>7</v>
       </c>
       <c r="C209" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D209" t="n">
-        <v>39.7</v>
+        <v>3768.1</v>
       </c>
       <c r="E209" t="s">
         <v>46</v>
       </c>
       <c r="F209" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="210">
@@ -4727,16 +4741,16 @@
         <v>7</v>
       </c>
       <c r="C210" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D210" t="n">
-        <v>51.8</v>
+        <v>2915.9</v>
       </c>
       <c r="E210" t="s">
         <v>46</v>
       </c>
       <c r="F210" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="211">
@@ -4747,16 +4761,16 @@
         <v>7</v>
       </c>
       <c r="C211" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D211" t="n">
-        <v>40.6</v>
+        <v>6150</v>
       </c>
       <c r="E211" t="s">
         <v>46</v>
       </c>
       <c r="F211" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="212">
@@ -4767,16 +4781,16 @@
         <v>7</v>
       </c>
       <c r="C212" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D212" t="n">
-        <v>118.9</v>
+        <v>610.4</v>
       </c>
       <c r="E212" t="s">
         <v>46</v>
       </c>
       <c r="F212" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="213">
@@ -4787,16 +4801,16 @@
         <v>7</v>
       </c>
       <c r="C213" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D213" t="n">
-        <v>54.6</v>
+        <v>244</v>
       </c>
       <c r="E213" t="s">
         <v>46</v>
       </c>
       <c r="F213" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="214">
@@ -4807,16 +4821,16 @@
         <v>7</v>
       </c>
       <c r="C214" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D214" t="n">
-        <v>99.3</v>
+        <v>100260.5</v>
       </c>
       <c r="E214" t="s">
         <v>46</v>
       </c>
       <c r="F214" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="215">
@@ -4827,16 +4841,16 @@
         <v>7</v>
       </c>
       <c r="C215" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D215" t="n">
-        <v>5</v>
+        <v>9127.9</v>
       </c>
       <c r="E215" t="s">
         <v>46</v>
       </c>
       <c r="F215" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="216">
@@ -4847,16 +4861,16 @@
         <v>7</v>
       </c>
       <c r="C216" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D216" t="n">
-        <v>72.5</v>
+        <v>1896.3</v>
       </c>
       <c r="E216" t="s">
         <v>46</v>
       </c>
       <c r="F216" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="217">
@@ -4867,16 +4881,16 @@
         <v>7</v>
       </c>
       <c r="C217" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D217" t="n">
-        <v>168.8</v>
+        <v>1936.2</v>
       </c>
       <c r="E217" t="s">
         <v>46</v>
       </c>
       <c r="F217" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="218">
@@ -4887,16 +4901,16 @@
         <v>7</v>
       </c>
       <c r="C218" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D218" t="n">
-        <v>76.7</v>
+        <v>104.9</v>
       </c>
       <c r="E218" t="s">
         <v>46</v>
       </c>
       <c r="F218" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="219">
@@ -4907,16 +4921,16 @@
         <v>7</v>
       </c>
       <c r="C219" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D219" t="n">
-        <v>48.4</v>
+        <v>2590.6</v>
       </c>
       <c r="E219" t="s">
         <v>46</v>
       </c>
       <c r="F219" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="220">
@@ -4927,16 +4941,16 @@
         <v>7</v>
       </c>
       <c r="C220" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D220" t="n">
-        <v>5.6</v>
+        <v>354.4</v>
       </c>
       <c r="E220" t="s">
         <v>46</v>
       </c>
       <c r="F220" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="221">
@@ -4947,16 +4961,16 @@
         <v>7</v>
       </c>
       <c r="C221" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D221" t="n">
-        <v>49.3</v>
+        <v>118.2</v>
       </c>
       <c r="E221" t="s">
         <v>46</v>
       </c>
       <c r="F221" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="222">
@@ -4967,16 +4981,16 @@
         <v>7</v>
       </c>
       <c r="C222" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D222" t="n">
-        <v>28.6</v>
+        <v>3935.6</v>
       </c>
       <c r="E222" t="s">
         <v>46</v>
       </c>
       <c r="F222" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="223">
@@ -4987,16 +5001,16 @@
         <v>7</v>
       </c>
       <c r="C223" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D223" t="n">
-        <v>4.4</v>
+        <v>649</v>
       </c>
       <c r="E223" t="s">
         <v>46</v>
       </c>
       <c r="F223" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="224">
@@ -5007,16 +5021,16 @@
         <v>7</v>
       </c>
       <c r="C224" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D224" t="n">
-        <v>2</v>
+        <v>768.5</v>
       </c>
       <c r="E224" t="s">
         <v>46</v>
       </c>
       <c r="F224" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="225">
@@ -5027,16 +5041,16 @@
         <v>7</v>
       </c>
       <c r="C225" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D225" t="n">
-        <v>5.6</v>
+        <v>588</v>
       </c>
       <c r="E225" t="s">
         <v>46</v>
       </c>
       <c r="F225" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="226">
@@ -5047,13 +5061,13 @@
         <v>7</v>
       </c>
       <c r="C226" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D226" t="n">
-        <v>240.2</v>
+        <v>21.5</v>
       </c>
       <c r="E226" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="F226" t="s">
         <v>58</v>
@@ -5067,13 +5081,13 @@
         <v>7</v>
       </c>
       <c r="C227" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D227" t="n">
-        <v>1.5</v>
+        <v>0.1</v>
       </c>
       <c r="E227" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="F227" t="s">
         <v>58</v>
@@ -5087,13 +5101,13 @@
         <v>7</v>
       </c>
       <c r="C228" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D228" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="E228" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="F228" t="s">
         <v>58</v>
@@ -5107,13 +5121,13 @@
         <v>7</v>
       </c>
       <c r="C229" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D229" t="n">
-        <v>5.8</v>
+        <v>1.1</v>
       </c>
       <c r="E229" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="F229" t="s">
         <v>58</v>
@@ -5127,13 +5141,13 @@
         <v>7</v>
       </c>
       <c r="C230" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D230" t="n">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="E230" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="F230" t="s">
         <v>58</v>
@@ -5147,13 +5161,13 @@
         <v>7</v>
       </c>
       <c r="C231" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D231" t="n">
-        <v>7.9</v>
+        <v>3.6</v>
       </c>
       <c r="E231" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="F231" t="s">
         <v>58</v>
@@ -5167,13 +5181,13 @@
         <v>7</v>
       </c>
       <c r="C232" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D232" t="n">
-        <v>12.5</v>
+        <v>0.3</v>
       </c>
       <c r="E232" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="F232" t="s">
         <v>58</v>
@@ -5187,13 +5201,13 @@
         <v>7</v>
       </c>
       <c r="C233" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D233" t="n">
-        <v>4.8</v>
+        <v>0.5</v>
       </c>
       <c r="E233" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="F233" t="s">
         <v>58</v>
@@ -5207,13 +5221,13 @@
         <v>7</v>
       </c>
       <c r="C234" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D234" t="n">
-        <v>5.4</v>
+        <v>16.1</v>
       </c>
       <c r="E234" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="F234" t="s">
         <v>58</v>
@@ -5227,11 +5241,13 @@
         <v>7</v>
       </c>
       <c r="C235" t="s">
-        <v>56</v>
-      </c>
-      <c r="D235"/>
+        <v>57</v>
+      </c>
+      <c r="D235" t="n">
+        <v>28.8</v>
+      </c>
       <c r="E235" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="F235" t="s">
         <v>58</v>
@@ -5245,13 +5261,13 @@
         <v>7</v>
       </c>
       <c r="C236" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D236" t="n">
-        <v>7.6</v>
+        <v>15.1</v>
       </c>
       <c r="E236" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="F236" t="s">
         <v>58</v>
@@ -5265,13 +5281,13 @@
         <v>7</v>
       </c>
       <c r="C237" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D237" t="n">
-        <v>3</v>
+        <v>10.2</v>
       </c>
       <c r="E237" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="F237" t="s">
         <v>58</v>
@@ -5285,13 +5301,13 @@
         <v>7</v>
       </c>
       <c r="C238" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D238" t="n">
-        <v>21.2</v>
+        <v>13</v>
       </c>
       <c r="E238" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="F238" t="s">
         <v>58</v>
@@ -5305,13 +5321,13 @@
         <v>7</v>
       </c>
       <c r="C239" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D239" t="n">
-        <v>2.5</v>
+        <v>9.1</v>
       </c>
       <c r="E239" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="F239" t="s">
         <v>58</v>
@@ -5325,13 +5341,13 @@
         <v>7</v>
       </c>
       <c r="C240" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D240" t="n">
-        <v>13.7</v>
+        <v>17.7</v>
       </c>
       <c r="E240" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="F240" t="s">
         <v>58</v>
@@ -5345,13 +5361,13 @@
         <v>7</v>
       </c>
       <c r="C241" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D241" t="n">
-        <v>53.3</v>
+        <v>8.2</v>
       </c>
       <c r="E241" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="F241" t="s">
         <v>58</v>
@@ -5365,13 +5381,13 @@
         <v>7</v>
       </c>
       <c r="C242" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D242" t="n">
-        <v>22.7</v>
+        <v>3.1</v>
       </c>
       <c r="E242" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="F242" t="s">
         <v>58</v>
@@ -5385,13 +5401,13 @@
         <v>7</v>
       </c>
       <c r="C243" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D243" t="n">
-        <v>11.7</v>
+        <v>3.9</v>
       </c>
       <c r="E243" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="F243" t="s">
         <v>58</v>
@@ -5405,13 +5421,13 @@
         <v>7</v>
       </c>
       <c r="C244" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D244" t="n">
-        <v>9.3</v>
+        <v>0.9</v>
       </c>
       <c r="E244" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="F244" t="s">
         <v>58</v>
@@ -5425,13 +5441,13 @@
         <v>7</v>
       </c>
       <c r="C245" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D245" t="n">
-        <v>13.9</v>
+        <v>0.3</v>
       </c>
       <c r="E245" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="F245" t="s">
         <v>58</v>
@@ -5445,13 +5461,13 @@
         <v>7</v>
       </c>
       <c r="C246" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D246" t="n">
-        <v>13.6</v>
+        <v>205.9</v>
       </c>
       <c r="E246" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="F246" t="s">
         <v>58</v>
@@ -5465,13 +5481,13 @@
         <v>7</v>
       </c>
       <c r="C247" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D247" t="n">
-        <v>1.3</v>
+        <v>31.5</v>
       </c>
       <c r="E247" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="F247" t="s">
         <v>58</v>
@@ -5485,13 +5501,13 @@
         <v>7</v>
       </c>
       <c r="C248" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D248" t="n">
-        <v>0.2</v>
+        <v>3.1</v>
       </c>
       <c r="E248" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="F248" t="s">
         <v>58</v>
@@ -5505,13 +5521,13 @@
         <v>7</v>
       </c>
       <c r="C249" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D249" t="n">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="E249" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="F249" t="s">
         <v>58</v>
@@ -5525,13 +5541,11 @@
         <v>7</v>
       </c>
       <c r="C250" t="s">
-        <v>56</v>
-      </c>
-      <c r="D250" t="n">
-        <v>2.4</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="D250"/>
       <c r="E250" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="F250" t="s">
         <v>58</v>
@@ -5545,13 +5559,13 @@
         <v>7</v>
       </c>
       <c r="C251" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D251" t="n">
-        <v>5.4</v>
+        <v>3.7</v>
       </c>
       <c r="E251" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="F251" t="s">
         <v>58</v>
@@ -5565,11 +5579,13 @@
         <v>7</v>
       </c>
       <c r="C252" t="s">
-        <v>56</v>
-      </c>
-      <c r="D252"/>
+        <v>57</v>
+      </c>
+      <c r="D252" t="n">
+        <v>0.5</v>
+      </c>
       <c r="E252" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="F252" t="s">
         <v>58</v>
@@ -5583,13 +5599,13 @@
         <v>7</v>
       </c>
       <c r="C253" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D253" t="n">
-        <v>6.1</v>
+        <v>0.5</v>
       </c>
       <c r="E253" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="F253" t="s">
         <v>58</v>
@@ -5603,13 +5619,13 @@
         <v>7</v>
       </c>
       <c r="C254" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D254" t="n">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="E254" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="F254" t="s">
         <v>58</v>
@@ -5623,13 +5639,13 @@
         <v>7</v>
       </c>
       <c r="C255" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D255" t="n">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="E255" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="F255" t="s">
         <v>58</v>
@@ -5643,13 +5659,13 @@
         <v>7</v>
       </c>
       <c r="C256" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D256" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="E256" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="F256" t="s">
         <v>58</v>
@@ -5663,13 +5679,13 @@
         <v>7</v>
       </c>
       <c r="C257" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D257" t="n">
-        <v>6.3</v>
+        <v>1.1</v>
       </c>
       <c r="E257" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="F257" t="s">
         <v>58</v>
@@ -5686,13 +5702,13 @@
         <v>59</v>
       </c>
       <c r="D258" t="n">
-        <v>123611.1</v>
+        <v>178.9</v>
       </c>
       <c r="E258" t="s">
+        <v>9</v>
+      </c>
+      <c r="F258" t="s">
         <v>60</v>
-      </c>
-      <c r="F258" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="259">
@@ -5706,13 +5722,13 @@
         <v>59</v>
       </c>
       <c r="D259" t="n">
-        <v>20.1</v>
+        <v>2.9</v>
       </c>
       <c r="E259" t="s">
+        <v>9</v>
+      </c>
+      <c r="F259" t="s">
         <v>60</v>
-      </c>
-      <c r="F259" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="260">
@@ -5726,13 +5742,13 @@
         <v>59</v>
       </c>
       <c r="D260" t="n">
-        <v>308.4</v>
+        <v>20.9</v>
       </c>
       <c r="E260" t="s">
+        <v>9</v>
+      </c>
+      <c r="F260" t="s">
         <v>60</v>
-      </c>
-      <c r="F260" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="261">
@@ -5746,13 +5762,13 @@
         <v>59</v>
       </c>
       <c r="D261" t="n">
-        <v>4984.5</v>
+        <v>12.7</v>
       </c>
       <c r="E261" t="s">
+        <v>9</v>
+      </c>
+      <c r="F261" t="s">
         <v>60</v>
-      </c>
-      <c r="F261" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="262">
@@ -5766,13 +5782,13 @@
         <v>59</v>
       </c>
       <c r="D262" t="n">
-        <v>2669.8</v>
+        <v>77.1</v>
       </c>
       <c r="E262" t="s">
+        <v>9</v>
+      </c>
+      <c r="F262" t="s">
         <v>60</v>
-      </c>
-      <c r="F262" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="263">
@@ -5786,13 +5802,13 @@
         <v>59</v>
       </c>
       <c r="D263" t="n">
-        <v>6882</v>
+        <v>96.2</v>
       </c>
       <c r="E263" t="s">
+        <v>9</v>
+      </c>
+      <c r="F263" t="s">
         <v>60</v>
-      </c>
-      <c r="F263" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="264">
@@ -5806,13 +5822,13 @@
         <v>59</v>
       </c>
       <c r="D264" t="n">
-        <v>4309.3</v>
+        <v>61.5</v>
       </c>
       <c r="E264" t="s">
+        <v>9</v>
+      </c>
+      <c r="F264" t="s">
         <v>60</v>
-      </c>
-      <c r="F264" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="265">
@@ -5826,13 +5842,13 @@
         <v>59</v>
       </c>
       <c r="D265" t="n">
-        <v>4911.3</v>
+        <v>17.3</v>
       </c>
       <c r="E265" t="s">
+        <v>9</v>
+      </c>
+      <c r="F265" t="s">
         <v>60</v>
-      </c>
-      <c r="F265" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="266">
@@ -5846,13 +5862,13 @@
         <v>59</v>
       </c>
       <c r="D266" t="n">
-        <v>14211.3</v>
+        <v>155.2</v>
       </c>
       <c r="E266" t="s">
+        <v>9</v>
+      </c>
+      <c r="F266" t="s">
         <v>60</v>
-      </c>
-      <c r="F266" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="267">
@@ -5866,13 +5882,13 @@
         <v>59</v>
       </c>
       <c r="D267" t="n">
-        <v>280.1</v>
+        <v>219.5</v>
       </c>
       <c r="E267" t="s">
+        <v>9</v>
+      </c>
+      <c r="F267" t="s">
         <v>60</v>
-      </c>
-      <c r="F267" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="268">
@@ -5886,13 +5902,13 @@
         <v>59</v>
       </c>
       <c r="D268" t="n">
-        <v>6204.1</v>
+        <v>48.3</v>
       </c>
       <c r="E268" t="s">
+        <v>9</v>
+      </c>
+      <c r="F268" t="s">
         <v>60</v>
-      </c>
-      <c r="F268" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="269">
@@ -5906,13 +5922,13 @@
         <v>59</v>
       </c>
       <c r="D269" t="n">
-        <v>1351.8</v>
+        <v>109</v>
       </c>
       <c r="E269" t="s">
+        <v>9</v>
+      </c>
+      <c r="F269" t="s">
         <v>60</v>
-      </c>
-      <c r="F269" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="270">
@@ -5926,13 +5942,13 @@
         <v>59</v>
       </c>
       <c r="D270" t="n">
-        <v>7489.5</v>
+        <v>235.1</v>
       </c>
       <c r="E270" t="s">
+        <v>9</v>
+      </c>
+      <c r="F270" t="s">
         <v>60</v>
-      </c>
-      <c r="F270" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="271">
@@ -5946,13 +5962,13 @@
         <v>59</v>
       </c>
       <c r="D271" t="n">
-        <v>901.6</v>
+        <v>60.5</v>
       </c>
       <c r="E271" t="s">
+        <v>9</v>
+      </c>
+      <c r="F271" t="s">
         <v>60</v>
-      </c>
-      <c r="F271" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="272">
@@ -5966,13 +5982,13 @@
         <v>59</v>
       </c>
       <c r="D272" t="n">
-        <v>4347.3</v>
+        <v>67.5</v>
       </c>
       <c r="E272" t="s">
+        <v>9</v>
+      </c>
+      <c r="F272" t="s">
         <v>60</v>
-      </c>
-      <c r="F272" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="273">
@@ -5986,13 +6002,13 @@
         <v>59</v>
       </c>
       <c r="D273" t="n">
-        <v>6426</v>
+        <v>47.5</v>
       </c>
       <c r="E273" t="s">
+        <v>9</v>
+      </c>
+      <c r="F273" t="s">
         <v>60</v>
-      </c>
-      <c r="F273" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="274">
@@ -6006,13 +6022,13 @@
         <v>59</v>
       </c>
       <c r="D274" t="n">
-        <v>9614.6</v>
+        <v>116.3</v>
       </c>
       <c r="E274" t="s">
+        <v>9</v>
+      </c>
+      <c r="F274" t="s">
         <v>60</v>
-      </c>
-      <c r="F274" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="275">
@@ -6026,13 +6042,13 @@
         <v>59</v>
       </c>
       <c r="D275" t="n">
-        <v>6065</v>
+        <v>43.4</v>
       </c>
       <c r="E275" t="s">
+        <v>9</v>
+      </c>
+      <c r="F275" t="s">
         <v>60</v>
-      </c>
-      <c r="F275" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="276">
@@ -6046,13 +6062,13 @@
         <v>59</v>
       </c>
       <c r="D276" t="n">
-        <v>6459.1</v>
+        <v>3.6</v>
       </c>
       <c r="E276" t="s">
+        <v>9</v>
+      </c>
+      <c r="F276" t="s">
         <v>60</v>
-      </c>
-      <c r="F276" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="277">
@@ -6066,13 +6082,13 @@
         <v>59</v>
       </c>
       <c r="D277" t="n">
-        <v>3614.8</v>
+        <v>0.2</v>
       </c>
       <c r="E277" t="s">
+        <v>9</v>
+      </c>
+      <c r="F277" t="s">
         <v>60</v>
-      </c>
-      <c r="F277" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="278">
@@ -6086,13 +6102,13 @@
         <v>59</v>
       </c>
       <c r="D278" t="n">
-        <v>5148.9</v>
+        <v>2289.2</v>
       </c>
       <c r="E278" t="s">
+        <v>9</v>
+      </c>
+      <c r="F278" t="s">
         <v>60</v>
-      </c>
-      <c r="F278" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="279">
@@ -6106,13 +6122,13 @@
         <v>59</v>
       </c>
       <c r="D279" t="n">
-        <v>404</v>
+        <v>294.6</v>
       </c>
       <c r="E279" t="s">
+        <v>9</v>
+      </c>
+      <c r="F279" t="s">
         <v>60</v>
-      </c>
-      <c r="F279" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="280">
@@ -6126,13 +6142,13 @@
         <v>59</v>
       </c>
       <c r="D280" t="n">
-        <v>2173.6</v>
+        <v>10.3</v>
       </c>
       <c r="E280" t="s">
+        <v>9</v>
+      </c>
+      <c r="F280" t="s">
         <v>60</v>
-      </c>
-      <c r="F280" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="281">
@@ -6146,13 +6162,13 @@
         <v>59</v>
       </c>
       <c r="D281" t="n">
-        <v>5142.3</v>
+        <v>34.1</v>
       </c>
       <c r="E281" t="s">
+        <v>9</v>
+      </c>
+      <c r="F281" t="s">
         <v>60</v>
-      </c>
-      <c r="F281" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="282">
@@ -6165,14 +6181,12 @@
       <c r="C282" t="s">
         <v>59</v>
       </c>
-      <c r="D282" t="n">
-        <v>3398.3</v>
-      </c>
+      <c r="D282"/>
       <c r="E282" t="s">
+        <v>9</v>
+      </c>
+      <c r="F282" t="s">
         <v>60</v>
-      </c>
-      <c r="F282" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="283">
@@ -6186,13 +6200,13 @@
         <v>59</v>
       </c>
       <c r="D283" t="n">
-        <v>2919.1</v>
+        <v>132.2</v>
       </c>
       <c r="E283" t="s">
+        <v>9</v>
+      </c>
+      <c r="F283" t="s">
         <v>60</v>
-      </c>
-      <c r="F283" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="284">
@@ -6206,13 +6220,13 @@
         <v>59</v>
       </c>
       <c r="D284" t="n">
-        <v>157.1</v>
+        <v>8.3</v>
       </c>
       <c r="E284" t="s">
+        <v>9</v>
+      </c>
+      <c r="F284" t="s">
         <v>60</v>
-      </c>
-      <c r="F284" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="285">
@@ -6226,13 +6240,13 @@
         <v>59</v>
       </c>
       <c r="D285" t="n">
-        <v>2848.1</v>
+        <v>0.6</v>
       </c>
       <c r="E285" t="s">
+        <v>9</v>
+      </c>
+      <c r="F285" t="s">
         <v>60</v>
-      </c>
-      <c r="F285" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="286">
@@ -6246,13 +6260,13 @@
         <v>59</v>
       </c>
       <c r="D286" t="n">
-        <v>3014.3</v>
+        <v>7.4</v>
       </c>
       <c r="E286" t="s">
+        <v>9</v>
+      </c>
+      <c r="F286" t="s">
         <v>60</v>
-      </c>
-      <c r="F286" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="287">
@@ -6266,13 +6280,13 @@
         <v>59</v>
       </c>
       <c r="D287" t="n">
-        <v>404.2</v>
+        <v>57.1</v>
       </c>
       <c r="E287" t="s">
+        <v>9</v>
+      </c>
+      <c r="F287" t="s">
         <v>60</v>
-      </c>
-      <c r="F287" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="288">
@@ -6286,13 +6300,13 @@
         <v>59</v>
       </c>
       <c r="D288" t="n">
-        <v>932.3</v>
+        <v>76.9</v>
       </c>
       <c r="E288" t="s">
+        <v>9</v>
+      </c>
+      <c r="F288" t="s">
         <v>60</v>
-      </c>
-      <c r="F288" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="289">
@@ -6306,13 +6320,13 @@
         <v>59</v>
       </c>
       <c r="D289" t="n">
-        <v>6018.3</v>
+        <v>94.2</v>
       </c>
       <c r="E289" t="s">
+        <v>9</v>
+      </c>
+      <c r="F289" t="s">
         <v>60</v>
-      </c>
-      <c r="F289" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="290">
@@ -6323,16 +6337,14 @@
         <v>7</v>
       </c>
       <c r="C290" t="s">
+        <v>61</v>
+      </c>
+      <c r="D290"/>
+      <c r="E290" t="s">
+        <v>9</v>
+      </c>
+      <c r="F290" t="s">
         <v>62</v>
-      </c>
-      <c r="D290" t="n">
-        <v>94440.6</v>
-      </c>
-      <c r="E290" t="s">
-        <v>60</v>
-      </c>
-      <c r="F290" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="291">
@@ -6343,16 +6355,14 @@
         <v>7</v>
       </c>
       <c r="C291" t="s">
+        <v>61</v>
+      </c>
+      <c r="D291"/>
+      <c r="E291" t="s">
+        <v>9</v>
+      </c>
+      <c r="F291" t="s">
         <v>62</v>
-      </c>
-      <c r="D291" t="n">
-        <v>51.8</v>
-      </c>
-      <c r="E291" t="s">
-        <v>60</v>
-      </c>
-      <c r="F291" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="292">
@@ -6363,16 +6373,14 @@
         <v>7</v>
       </c>
       <c r="C292" t="s">
+        <v>61</v>
+      </c>
+      <c r="D292"/>
+      <c r="E292" t="s">
+        <v>9</v>
+      </c>
+      <c r="F292" t="s">
         <v>62</v>
-      </c>
-      <c r="D292" t="n">
-        <v>397.1</v>
-      </c>
-      <c r="E292" t="s">
-        <v>60</v>
-      </c>
-      <c r="F292" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="293">
@@ -6383,16 +6391,14 @@
         <v>7</v>
       </c>
       <c r="C293" t="s">
+        <v>61</v>
+      </c>
+      <c r="D293"/>
+      <c r="E293" t="s">
+        <v>9</v>
+      </c>
+      <c r="F293" t="s">
         <v>62</v>
-      </c>
-      <c r="D293" t="n">
-        <v>6747.9</v>
-      </c>
-      <c r="E293" t="s">
-        <v>60</v>
-      </c>
-      <c r="F293" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="294">
@@ -6403,16 +6409,14 @@
         <v>7</v>
       </c>
       <c r="C294" t="s">
+        <v>61</v>
+      </c>
+      <c r="D294"/>
+      <c r="E294" t="s">
+        <v>9</v>
+      </c>
+      <c r="F294" t="s">
         <v>62</v>
-      </c>
-      <c r="D294" t="n">
-        <v>2634.3</v>
-      </c>
-      <c r="E294" t="s">
-        <v>60</v>
-      </c>
-      <c r="F294" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="295">
@@ -6423,16 +6427,14 @@
         <v>7</v>
       </c>
       <c r="C295" t="s">
+        <v>61</v>
+      </c>
+      <c r="D295"/>
+      <c r="E295" t="s">
+        <v>9</v>
+      </c>
+      <c r="F295" t="s">
         <v>62</v>
-      </c>
-      <c r="D295" t="n">
-        <v>7824.3</v>
-      </c>
-      <c r="E295" t="s">
-        <v>60</v>
-      </c>
-      <c r="F295" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="296">
@@ -6443,16 +6445,14 @@
         <v>7</v>
       </c>
       <c r="C296" t="s">
+        <v>61</v>
+      </c>
+      <c r="D296"/>
+      <c r="E296" t="s">
+        <v>9</v>
+      </c>
+      <c r="F296" t="s">
         <v>62</v>
-      </c>
-      <c r="D296" t="n">
-        <v>3947.6</v>
-      </c>
-      <c r="E296" t="s">
-        <v>60</v>
-      </c>
-      <c r="F296" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="297">
@@ -6463,16 +6463,14 @@
         <v>7</v>
       </c>
       <c r="C297" t="s">
+        <v>61</v>
+      </c>
+      <c r="D297"/>
+      <c r="E297" t="s">
+        <v>9</v>
+      </c>
+      <c r="F297" t="s">
         <v>62</v>
-      </c>
-      <c r="D297" t="n">
-        <v>5449</v>
-      </c>
-      <c r="E297" t="s">
-        <v>60</v>
-      </c>
-      <c r="F297" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="298">
@@ -6483,16 +6481,14 @@
         <v>7</v>
       </c>
       <c r="C298" t="s">
+        <v>61</v>
+      </c>
+      <c r="D298"/>
+      <c r="E298" t="s">
+        <v>9</v>
+      </c>
+      <c r="F298" t="s">
         <v>62</v>
-      </c>
-      <c r="D298" t="n">
-        <v>14251.6</v>
-      </c>
-      <c r="E298" t="s">
-        <v>60</v>
-      </c>
-      <c r="F298" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="299">
@@ -6503,16 +6499,14 @@
         <v>7</v>
       </c>
       <c r="C299" t="s">
+        <v>61</v>
+      </c>
+      <c r="D299"/>
+      <c r="E299" t="s">
+        <v>9</v>
+      </c>
+      <c r="F299" t="s">
         <v>62</v>
-      </c>
-      <c r="D299" t="n">
-        <v>85.6</v>
-      </c>
-      <c r="E299" t="s">
-        <v>60</v>
-      </c>
-      <c r="F299" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="300">
@@ -6523,16 +6517,14 @@
         <v>7</v>
       </c>
       <c r="C300" t="s">
+        <v>61</v>
+      </c>
+      <c r="D300"/>
+      <c r="E300" t="s">
+        <v>9</v>
+      </c>
+      <c r="F300" t="s">
         <v>62</v>
-      </c>
-      <c r="D300" t="n">
-        <v>4587</v>
-      </c>
-      <c r="E300" t="s">
-        <v>60</v>
-      </c>
-      <c r="F300" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="301">
@@ -6543,16 +6535,14 @@
         <v>7</v>
       </c>
       <c r="C301" t="s">
+        <v>61</v>
+      </c>
+      <c r="D301"/>
+      <c r="E301" t="s">
+        <v>9</v>
+      </c>
+      <c r="F301" t="s">
         <v>62</v>
-      </c>
-      <c r="D301" t="n">
-        <v>349.3</v>
-      </c>
-      <c r="E301" t="s">
-        <v>60</v>
-      </c>
-      <c r="F301" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="302">
@@ -6563,16 +6553,14 @@
         <v>7</v>
       </c>
       <c r="C302" t="s">
+        <v>61</v>
+      </c>
+      <c r="D302"/>
+      <c r="E302" t="s">
+        <v>9</v>
+      </c>
+      <c r="F302" t="s">
         <v>62</v>
-      </c>
-      <c r="D302" t="n">
-        <v>5750.1</v>
-      </c>
-      <c r="E302" t="s">
-        <v>60</v>
-      </c>
-      <c r="F302" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="303">
@@ -6583,16 +6571,14 @@
         <v>7</v>
       </c>
       <c r="C303" t="s">
+        <v>61</v>
+      </c>
+      <c r="D303"/>
+      <c r="E303" t="s">
+        <v>9</v>
+      </c>
+      <c r="F303" t="s">
         <v>62</v>
-      </c>
-      <c r="D303" t="n">
-        <v>174.7</v>
-      </c>
-      <c r="E303" t="s">
-        <v>60</v>
-      </c>
-      <c r="F303" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="304">
@@ -6603,16 +6589,14 @@
         <v>7</v>
       </c>
       <c r="C304" t="s">
+        <v>61</v>
+      </c>
+      <c r="D304"/>
+      <c r="E304" t="s">
+        <v>9</v>
+      </c>
+      <c r="F304" t="s">
         <v>62</v>
-      </c>
-      <c r="D304" t="n">
-        <v>1427.4</v>
-      </c>
-      <c r="E304" t="s">
-        <v>60</v>
-      </c>
-      <c r="F304" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="305">
@@ -6623,16 +6607,14 @@
         <v>7</v>
       </c>
       <c r="C305" t="s">
+        <v>61</v>
+      </c>
+      <c r="D305"/>
+      <c r="E305" t="s">
+        <v>9</v>
+      </c>
+      <c r="F305" t="s">
         <v>62</v>
-      </c>
-      <c r="D305" t="n">
-        <v>9649.2</v>
-      </c>
-      <c r="E305" t="s">
-        <v>60</v>
-      </c>
-      <c r="F305" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="306">
@@ -6643,16 +6625,14 @@
         <v>7</v>
       </c>
       <c r="C306" t="s">
+        <v>61</v>
+      </c>
+      <c r="D306"/>
+      <c r="E306" t="s">
+        <v>9</v>
+      </c>
+      <c r="F306" t="s">
         <v>62</v>
-      </c>
-      <c r="D306" t="n">
-        <v>11561.8</v>
-      </c>
-      <c r="E306" t="s">
-        <v>60</v>
-      </c>
-      <c r="F306" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="307">
@@ -6663,16 +6643,14 @@
         <v>7</v>
       </c>
       <c r="C307" t="s">
+        <v>61</v>
+      </c>
+      <c r="D307"/>
+      <c r="E307" t="s">
+        <v>9</v>
+      </c>
+      <c r="F307" t="s">
         <v>62</v>
-      </c>
-      <c r="D307" t="n">
-        <v>3035.9</v>
-      </c>
-      <c r="E307" t="s">
-        <v>60</v>
-      </c>
-      <c r="F307" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="308">
@@ -6683,16 +6661,14 @@
         <v>7</v>
       </c>
       <c r="C308" t="s">
+        <v>61</v>
+      </c>
+      <c r="D308"/>
+      <c r="E308" t="s">
+        <v>9</v>
+      </c>
+      <c r="F308" t="s">
         <v>62</v>
-      </c>
-      <c r="D308" t="n">
-        <v>1864</v>
-      </c>
-      <c r="E308" t="s">
-        <v>60</v>
-      </c>
-      <c r="F308" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="309">
@@ -6703,16 +6679,14 @@
         <v>7</v>
       </c>
       <c r="C309" t="s">
+        <v>61</v>
+      </c>
+      <c r="D309"/>
+      <c r="E309" t="s">
+        <v>9</v>
+      </c>
+      <c r="F309" t="s">
         <v>62</v>
-      </c>
-      <c r="D309" t="n">
-        <v>368.3</v>
-      </c>
-      <c r="E309" t="s">
-        <v>60</v>
-      </c>
-      <c r="F309" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="310">
@@ -6723,16 +6697,14 @@
         <v>7</v>
       </c>
       <c r="C310" t="s">
+        <v>61</v>
+      </c>
+      <c r="D310"/>
+      <c r="E310" t="s">
+        <v>9</v>
+      </c>
+      <c r="F310" t="s">
         <v>62</v>
-      </c>
-      <c r="D310" t="n">
-        <v>1276</v>
-      </c>
-      <c r="E310" t="s">
-        <v>60</v>
-      </c>
-      <c r="F310" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="311">
@@ -6743,16 +6715,14 @@
         <v>7</v>
       </c>
       <c r="C311" t="s">
+        <v>61</v>
+      </c>
+      <c r="D311"/>
+      <c r="E311" t="s">
+        <v>9</v>
+      </c>
+      <c r="F311" t="s">
         <v>62</v>
-      </c>
-      <c r="D311" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="E311" t="s">
-        <v>60</v>
-      </c>
-      <c r="F311" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="312">
@@ -6763,16 +6733,14 @@
         <v>7</v>
       </c>
       <c r="C312" t="s">
+        <v>61</v>
+      </c>
+      <c r="D312"/>
+      <c r="E312" t="s">
+        <v>9</v>
+      </c>
+      <c r="F312" t="s">
         <v>62</v>
-      </c>
-      <c r="D312" t="n">
-        <v>211.6</v>
-      </c>
-      <c r="E312" t="s">
-        <v>60</v>
-      </c>
-      <c r="F312" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="313">
@@ -6783,16 +6751,14 @@
         <v>7</v>
       </c>
       <c r="C313" t="s">
+        <v>61</v>
+      </c>
+      <c r="D313"/>
+      <c r="E313" t="s">
+        <v>9</v>
+      </c>
+      <c r="F313" t="s">
         <v>62</v>
-      </c>
-      <c r="D313" t="n">
-        <v>1434.2</v>
-      </c>
-      <c r="E313" t="s">
-        <v>60</v>
-      </c>
-      <c r="F313" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="314">
@@ -6803,16 +6769,14 @@
         <v>7</v>
       </c>
       <c r="C314" t="s">
+        <v>61</v>
+      </c>
+      <c r="D314"/>
+      <c r="E314" t="s">
+        <v>9</v>
+      </c>
+      <c r="F314" t="s">
         <v>62</v>
-      </c>
-      <c r="D314" t="n">
-        <v>120.6</v>
-      </c>
-      <c r="E314" t="s">
-        <v>60</v>
-      </c>
-      <c r="F314" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="315">
@@ -6823,16 +6787,14 @@
         <v>7</v>
       </c>
       <c r="C315" t="s">
+        <v>61</v>
+      </c>
+      <c r="D315"/>
+      <c r="E315" t="s">
+        <v>9</v>
+      </c>
+      <c r="F315" t="s">
         <v>62</v>
-      </c>
-      <c r="D315" t="n">
-        <v>238.5</v>
-      </c>
-      <c r="E315" t="s">
-        <v>60</v>
-      </c>
-      <c r="F315" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="316">
@@ -6843,16 +6805,14 @@
         <v>7</v>
       </c>
       <c r="C316" t="s">
+        <v>61</v>
+      </c>
+      <c r="D316"/>
+      <c r="E316" t="s">
+        <v>9</v>
+      </c>
+      <c r="F316" t="s">
         <v>62</v>
-      </c>
-      <c r="D316" t="n">
-        <v>135.1</v>
-      </c>
-      <c r="E316" t="s">
-        <v>60</v>
-      </c>
-      <c r="F316" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="317">
@@ -6863,16 +6823,14 @@
         <v>7</v>
       </c>
       <c r="C317" t="s">
+        <v>61</v>
+      </c>
+      <c r="D317"/>
+      <c r="E317" t="s">
+        <v>9</v>
+      </c>
+      <c r="F317" t="s">
         <v>62</v>
-      </c>
-      <c r="D317" t="n">
-        <v>2064.5</v>
-      </c>
-      <c r="E317" t="s">
-        <v>60</v>
-      </c>
-      <c r="F317" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="318">
@@ -6883,16 +6841,14 @@
         <v>7</v>
       </c>
       <c r="C318" t="s">
+        <v>61</v>
+      </c>
+      <c r="D318"/>
+      <c r="E318" t="s">
+        <v>9</v>
+      </c>
+      <c r="F318" t="s">
         <v>62</v>
-      </c>
-      <c r="D318" t="n">
-        <v>1806</v>
-      </c>
-      <c r="E318" t="s">
-        <v>60</v>
-      </c>
-      <c r="F318" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="319">
@@ -6903,16 +6859,14 @@
         <v>7</v>
       </c>
       <c r="C319" t="s">
+        <v>61</v>
+      </c>
+      <c r="D319"/>
+      <c r="E319" t="s">
+        <v>9</v>
+      </c>
+      <c r="F319" t="s">
         <v>62</v>
-      </c>
-      <c r="D319" t="n">
-        <v>302.8</v>
-      </c>
-      <c r="E319" t="s">
-        <v>60</v>
-      </c>
-      <c r="F319" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="320">
@@ -6923,16 +6877,14 @@
         <v>7</v>
       </c>
       <c r="C320" t="s">
+        <v>61</v>
+      </c>
+      <c r="D320"/>
+      <c r="E320" t="s">
+        <v>9</v>
+      </c>
+      <c r="F320" t="s">
         <v>62</v>
-      </c>
-      <c r="D320" t="n">
-        <v>717.5</v>
-      </c>
-      <c r="E320" t="s">
-        <v>60</v>
-      </c>
-      <c r="F320" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="321">
@@ -6943,16 +6895,14 @@
         <v>7</v>
       </c>
       <c r="C321" t="s">
+        <v>61</v>
+      </c>
+      <c r="D321"/>
+      <c r="E321" t="s">
+        <v>9</v>
+      </c>
+      <c r="F321" t="s">
         <v>62</v>
-      </c>
-      <c r="D321" t="n">
-        <v>5970.9</v>
-      </c>
-      <c r="E321" t="s">
-        <v>60</v>
-      </c>
-      <c r="F321" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="322">
@@ -6963,16 +6913,14 @@
         <v>7</v>
       </c>
       <c r="C322" t="s">
+        <v>63</v>
+      </c>
+      <c r="D322"/>
+      <c r="E322" t="s">
+        <v>9</v>
+      </c>
+      <c r="F322" t="s">
         <v>64</v>
-      </c>
-      <c r="D322" t="n">
-        <v>100260.5</v>
-      </c>
-      <c r="E322" t="s">
-        <v>60</v>
-      </c>
-      <c r="F322" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="323">
@@ -6983,16 +6931,14 @@
         <v>7</v>
       </c>
       <c r="C323" t="s">
+        <v>63</v>
+      </c>
+      <c r="D323"/>
+      <c r="E323" t="s">
+        <v>9</v>
+      </c>
+      <c r="F323" t="s">
         <v>64</v>
-      </c>
-      <c r="D323" t="n">
-        <v>42.1</v>
-      </c>
-      <c r="E323" t="s">
-        <v>60</v>
-      </c>
-      <c r="F323" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="324">
@@ -7003,16 +6949,14 @@
         <v>7</v>
       </c>
       <c r="C324" t="s">
+        <v>63</v>
+      </c>
+      <c r="D324"/>
+      <c r="E324" t="s">
+        <v>9</v>
+      </c>
+      <c r="F324" t="s">
         <v>64</v>
-      </c>
-      <c r="D324" t="n">
-        <v>354.4</v>
-      </c>
-      <c r="E324" t="s">
-        <v>60</v>
-      </c>
-      <c r="F324" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="325">
@@ -7023,16 +6967,14 @@
         <v>7</v>
       </c>
       <c r="C325" t="s">
+        <v>63</v>
+      </c>
+      <c r="D325"/>
+      <c r="E325" t="s">
+        <v>9</v>
+      </c>
+      <c r="F325" t="s">
         <v>64</v>
-      </c>
-      <c r="D325" t="n">
-        <v>5815.8</v>
-      </c>
-      <c r="E325" t="s">
-        <v>60</v>
-      </c>
-      <c r="F325" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="326">
@@ -7043,16 +6985,14 @@
         <v>7</v>
       </c>
       <c r="C326" t="s">
+        <v>63</v>
+      </c>
+      <c r="D326"/>
+      <c r="E326" t="s">
+        <v>9</v>
+      </c>
+      <c r="F326" t="s">
         <v>64</v>
-      </c>
-      <c r="D326" t="n">
-        <v>1896.3</v>
-      </c>
-      <c r="E326" t="s">
-        <v>60</v>
-      </c>
-      <c r="F326" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="327">
@@ -7063,16 +7003,14 @@
         <v>7</v>
       </c>
       <c r="C327" t="s">
+        <v>63</v>
+      </c>
+      <c r="D327"/>
+      <c r="E327" t="s">
+        <v>9</v>
+      </c>
+      <c r="F327" t="s">
         <v>64</v>
-      </c>
-      <c r="D327" t="n">
-        <v>6150</v>
-      </c>
-      <c r="E327" t="s">
-        <v>60</v>
-      </c>
-      <c r="F327" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="328">
@@ -7083,16 +7021,14 @@
         <v>7</v>
       </c>
       <c r="C328" t="s">
+        <v>63</v>
+      </c>
+      <c r="D328"/>
+      <c r="E328" t="s">
+        <v>9</v>
+      </c>
+      <c r="F328" t="s">
         <v>64</v>
-      </c>
-      <c r="D328" t="n">
-        <v>2915.9</v>
-      </c>
-      <c r="E328" t="s">
-        <v>60</v>
-      </c>
-      <c r="F328" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="329">
@@ -7103,16 +7039,14 @@
         <v>7</v>
       </c>
       <c r="C329" t="s">
+        <v>63</v>
+      </c>
+      <c r="D329"/>
+      <c r="E329" t="s">
+        <v>9</v>
+      </c>
+      <c r="F329" t="s">
         <v>64</v>
-      </c>
-      <c r="D329" t="n">
-        <v>4563.1</v>
-      </c>
-      <c r="E329" t="s">
-        <v>60</v>
-      </c>
-      <c r="F329" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="330">
@@ -7123,16 +7057,14 @@
         <v>7</v>
       </c>
       <c r="C330" t="s">
+        <v>63</v>
+      </c>
+      <c r="D330"/>
+      <c r="E330" t="s">
+        <v>9</v>
+      </c>
+      <c r="F330" t="s">
         <v>64</v>
-      </c>
-      <c r="D330" t="n">
-        <v>13812.8</v>
-      </c>
-      <c r="E330" t="s">
-        <v>60</v>
-      </c>
-      <c r="F330" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="331">
@@ -7143,16 +7075,14 @@
         <v>7</v>
       </c>
       <c r="C331" t="s">
+        <v>63</v>
+      </c>
+      <c r="D331"/>
+      <c r="E331" t="s">
+        <v>9</v>
+      </c>
+      <c r="F331" t="s">
         <v>64</v>
-      </c>
-      <c r="D331" t="n">
-        <v>104.9</v>
-      </c>
-      <c r="E331" t="s">
-        <v>60</v>
-      </c>
-      <c r="F331" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="332">
@@ -7163,16 +7093,14 @@
         <v>7</v>
       </c>
       <c r="C332" t="s">
+        <v>63</v>
+      </c>
+      <c r="D332"/>
+      <c r="E332" t="s">
+        <v>9</v>
+      </c>
+      <c r="F332" t="s">
         <v>64</v>
-      </c>
-      <c r="D332" t="n">
-        <v>5097</v>
-      </c>
-      <c r="E332" t="s">
-        <v>60</v>
-      </c>
-      <c r="F332" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="333">
@@ -7183,16 +7111,14 @@
         <v>7</v>
       </c>
       <c r="C333" t="s">
+        <v>63</v>
+      </c>
+      <c r="D333"/>
+      <c r="E333" t="s">
+        <v>9</v>
+      </c>
+      <c r="F333" t="s">
         <v>64</v>
-      </c>
-      <c r="D333" t="n">
-        <v>768.5</v>
-      </c>
-      <c r="E333" t="s">
-        <v>60</v>
-      </c>
-      <c r="F333" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="334">
@@ -7203,16 +7129,14 @@
         <v>7</v>
       </c>
       <c r="C334" t="s">
+        <v>63</v>
+      </c>
+      <c r="D334"/>
+      <c r="E334" t="s">
+        <v>9</v>
+      </c>
+      <c r="F334" t="s">
         <v>64</v>
-      </c>
-      <c r="D334" t="n">
-        <v>7248.9</v>
-      </c>
-      <c r="E334" t="s">
-        <v>60</v>
-      </c>
-      <c r="F334" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="335">
@@ -7223,16 +7147,14 @@
         <v>7</v>
       </c>
       <c r="C335" t="s">
+        <v>63</v>
+      </c>
+      <c r="D335"/>
+      <c r="E335" t="s">
+        <v>9</v>
+      </c>
+      <c r="F335" t="s">
         <v>64</v>
-      </c>
-      <c r="D335" t="n">
-        <v>509.9</v>
-      </c>
-      <c r="E335" t="s">
-        <v>60</v>
-      </c>
-      <c r="F335" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="336">
@@ -7243,16 +7165,14 @@
         <v>7</v>
       </c>
       <c r="C336" t="s">
+        <v>63</v>
+      </c>
+      <c r="D336"/>
+      <c r="E336" t="s">
+        <v>9</v>
+      </c>
+      <c r="F336" t="s">
         <v>64</v>
-      </c>
-      <c r="D336" t="n">
-        <v>3768.1</v>
-      </c>
-      <c r="E336" t="s">
-        <v>60</v>
-      </c>
-      <c r="F336" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="337">
@@ -7263,16 +7183,14 @@
         <v>7</v>
       </c>
       <c r="C337" t="s">
+        <v>63</v>
+      </c>
+      <c r="D337"/>
+      <c r="E337" t="s">
+        <v>9</v>
+      </c>
+      <c r="F337" t="s">
         <v>64</v>
-      </c>
-      <c r="D337" t="n">
-        <v>9127.9</v>
-      </c>
-      <c r="E337" t="s">
-        <v>60</v>
-      </c>
-      <c r="F337" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="338">
@@ -7283,16 +7201,14 @@
         <v>7</v>
       </c>
       <c r="C338" t="s">
+        <v>63</v>
+      </c>
+      <c r="D338"/>
+      <c r="E338" t="s">
+        <v>9</v>
+      </c>
+      <c r="F338" t="s">
         <v>64</v>
-      </c>
-      <c r="D338" t="n">
-        <v>11189.8</v>
-      </c>
-      <c r="E338" t="s">
-        <v>60</v>
-      </c>
-      <c r="F338" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="339">
@@ -7303,16 +7219,14 @@
         <v>7</v>
       </c>
       <c r="C339" t="s">
+        <v>63</v>
+      </c>
+      <c r="D339"/>
+      <c r="E339" t="s">
+        <v>9</v>
+      </c>
+      <c r="F339" t="s">
         <v>64</v>
-      </c>
-      <c r="D339" t="n">
-        <v>4569.2</v>
-      </c>
-      <c r="E339" t="s">
-        <v>60</v>
-      </c>
-      <c r="F339" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="340">
@@ -7323,16 +7237,14 @@
         <v>7</v>
       </c>
       <c r="C340" t="s">
+        <v>63</v>
+      </c>
+      <c r="D340"/>
+      <c r="E340" t="s">
+        <v>9</v>
+      </c>
+      <c r="F340" t="s">
         <v>64</v>
-      </c>
-      <c r="D340" t="n">
-        <v>4725.4</v>
-      </c>
-      <c r="E340" t="s">
-        <v>60</v>
-      </c>
-      <c r="F340" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="341">
@@ -7343,16 +7255,14 @@
         <v>7</v>
       </c>
       <c r="C341" t="s">
+        <v>63</v>
+      </c>
+      <c r="D341"/>
+      <c r="E341" t="s">
+        <v>9</v>
+      </c>
+      <c r="F341" t="s">
         <v>64</v>
-      </c>
-      <c r="D341" t="n">
-        <v>1747.7</v>
-      </c>
-      <c r="E341" t="s">
-        <v>60</v>
-      </c>
-      <c r="F341" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="342">
@@ -7363,16 +7273,14 @@
         <v>7</v>
       </c>
       <c r="C342" t="s">
+        <v>63</v>
+      </c>
+      <c r="D342"/>
+      <c r="E342" t="s">
+        <v>9</v>
+      </c>
+      <c r="F342" t="s">
         <v>64</v>
-      </c>
-      <c r="D342" t="n">
-        <v>2946.3</v>
-      </c>
-      <c r="E342" t="s">
-        <v>60</v>
-      </c>
-      <c r="F342" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="343">
@@ -7383,16 +7291,14 @@
         <v>7</v>
       </c>
       <c r="C343" t="s">
+        <v>63</v>
+      </c>
+      <c r="D343"/>
+      <c r="E343" t="s">
+        <v>9</v>
+      </c>
+      <c r="F343" t="s">
         <v>64</v>
-      </c>
-      <c r="D343" t="n">
-        <v>225.5</v>
-      </c>
-      <c r="E343" t="s">
-        <v>60</v>
-      </c>
-      <c r="F343" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="344">
@@ -7403,16 +7309,14 @@
         <v>7</v>
       </c>
       <c r="C344" t="s">
+        <v>63</v>
+      </c>
+      <c r="D344"/>
+      <c r="E344" t="s">
+        <v>9</v>
+      </c>
+      <c r="F344" t="s">
         <v>64</v>
-      </c>
-      <c r="D344" t="n">
-        <v>588</v>
-      </c>
-      <c r="E344" t="s">
-        <v>60</v>
-      </c>
-      <c r="F344" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="345">
@@ -7423,16 +7327,14 @@
         <v>7</v>
       </c>
       <c r="C345" t="s">
+        <v>63</v>
+      </c>
+      <c r="D345"/>
+      <c r="E345" t="s">
+        <v>9</v>
+      </c>
+      <c r="F345" t="s">
         <v>64</v>
-      </c>
-      <c r="D345" t="n">
-        <v>2590.6</v>
-      </c>
-      <c r="E345" t="s">
-        <v>60</v>
-      </c>
-      <c r="F345" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="346">
@@ -7443,16 +7345,14 @@
         <v>7</v>
       </c>
       <c r="C346" t="s">
+        <v>63</v>
+      </c>
+      <c r="D346"/>
+      <c r="E346" t="s">
+        <v>9</v>
+      </c>
+      <c r="F346" t="s">
         <v>64</v>
-      </c>
-      <c r="D346" t="n">
-        <v>620.3</v>
-      </c>
-      <c r="E346" t="s">
-        <v>60</v>
-      </c>
-      <c r="F346" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="347">
@@ -7463,16 +7363,14 @@
         <v>7</v>
       </c>
       <c r="C347" t="s">
+        <v>63</v>
+      </c>
+      <c r="D347"/>
+      <c r="E347" t="s">
+        <v>9</v>
+      </c>
+      <c r="F347" t="s">
         <v>64</v>
-      </c>
-      <c r="D347" t="n">
-        <v>649</v>
-      </c>
-      <c r="E347" t="s">
-        <v>60</v>
-      </c>
-      <c r="F347" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="348">
@@ -7483,16 +7381,14 @@
         <v>7</v>
       </c>
       <c r="C348" t="s">
+        <v>63</v>
+      </c>
+      <c r="D348"/>
+      <c r="E348" t="s">
+        <v>9</v>
+      </c>
+      <c r="F348" t="s">
         <v>64</v>
-      </c>
-      <c r="D348" t="n">
-        <v>118.2</v>
-      </c>
-      <c r="E348" t="s">
-        <v>60</v>
-      </c>
-      <c r="F348" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="349">
@@ -7503,16 +7399,14 @@
         <v>7</v>
       </c>
       <c r="C349" t="s">
+        <v>63</v>
+      </c>
+      <c r="D349"/>
+      <c r="E349" t="s">
+        <v>9</v>
+      </c>
+      <c r="F349" t="s">
         <v>64</v>
-      </c>
-      <c r="D349" t="n">
-        <v>1936.2</v>
-      </c>
-      <c r="E349" t="s">
-        <v>60</v>
-      </c>
-      <c r="F349" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="350">
@@ -7523,16 +7417,14 @@
         <v>7</v>
       </c>
       <c r="C350" t="s">
+        <v>63</v>
+      </c>
+      <c r="D350"/>
+      <c r="E350" t="s">
+        <v>9</v>
+      </c>
+      <c r="F350" t="s">
         <v>64</v>
-      </c>
-      <c r="D350" t="n">
-        <v>1388.7</v>
-      </c>
-      <c r="E350" t="s">
-        <v>60</v>
-      </c>
-      <c r="F350" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="351">
@@ -7543,16 +7435,14 @@
         <v>7</v>
       </c>
       <c r="C351" t="s">
+        <v>63</v>
+      </c>
+      <c r="D351"/>
+      <c r="E351" t="s">
+        <v>9</v>
+      </c>
+      <c r="F351" t="s">
         <v>64</v>
-      </c>
-      <c r="D351" t="n">
-        <v>244</v>
-      </c>
-      <c r="E351" t="s">
-        <v>60</v>
-      </c>
-      <c r="F351" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="352">
@@ -7563,16 +7453,14 @@
         <v>7</v>
       </c>
       <c r="C352" t="s">
+        <v>63</v>
+      </c>
+      <c r="D352"/>
+      <c r="E352" t="s">
+        <v>9</v>
+      </c>
+      <c r="F352" t="s">
         <v>64</v>
-      </c>
-      <c r="D352" t="n">
-        <v>610.4</v>
-      </c>
-      <c r="E352" t="s">
-        <v>60</v>
-      </c>
-      <c r="F352" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="353">
@@ -7583,16 +7471,1870 @@
         <v>7</v>
       </c>
       <c r="C353" t="s">
+        <v>63</v>
+      </c>
+      <c r="D353"/>
+      <c r="E353" t="s">
+        <v>9</v>
+      </c>
+      <c r="F353" t="s">
         <v>64</v>
       </c>
-      <c r="D353" t="n">
-        <v>3935.6</v>
-      </c>
-      <c r="E353" t="s">
-        <v>60</v>
-      </c>
-      <c r="F353" t="s">
+    </row>
+    <row r="354">
+      <c r="A354" t="s">
+        <v>6</v>
+      </c>
+      <c r="B354" t="s">
+        <v>7</v>
+      </c>
+      <c r="C354" t="s">
         <v>65</v>
+      </c>
+      <c r="D354" t="n">
+        <v>207.9</v>
+      </c>
+      <c r="E354" t="s">
+        <v>9</v>
+      </c>
+      <c r="F354" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="s">
+        <v>11</v>
+      </c>
+      <c r="B355" t="s">
+        <v>7</v>
+      </c>
+      <c r="C355" t="s">
+        <v>65</v>
+      </c>
+      <c r="D355" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E355" t="s">
+        <v>9</v>
+      </c>
+      <c r="F355" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="s">
+        <v>12</v>
+      </c>
+      <c r="B356" t="s">
+        <v>7</v>
+      </c>
+      <c r="C356" t="s">
+        <v>65</v>
+      </c>
+      <c r="D356" t="n">
+        <v>8.8</v>
+      </c>
+      <c r="E356" t="s">
+        <v>9</v>
+      </c>
+      <c r="F356" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="s">
+        <v>13</v>
+      </c>
+      <c r="B357" t="s">
+        <v>7</v>
+      </c>
+      <c r="C357" t="s">
+        <v>65</v>
+      </c>
+      <c r="D357" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="E357" t="s">
+        <v>9</v>
+      </c>
+      <c r="F357" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="s">
+        <v>14</v>
+      </c>
+      <c r="B358" t="s">
+        <v>7</v>
+      </c>
+      <c r="C358" t="s">
+        <v>65</v>
+      </c>
+      <c r="D358" t="n">
+        <v>32</v>
+      </c>
+      <c r="E358" t="s">
+        <v>9</v>
+      </c>
+      <c r="F358" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="s">
+        <v>15</v>
+      </c>
+      <c r="B359" t="s">
+        <v>7</v>
+      </c>
+      <c r="C359" t="s">
+        <v>65</v>
+      </c>
+      <c r="D359" t="n">
+        <v>51.8</v>
+      </c>
+      <c r="E359" t="s">
+        <v>9</v>
+      </c>
+      <c r="F359" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="s">
+        <v>16</v>
+      </c>
+      <c r="B360" t="s">
+        <v>7</v>
+      </c>
+      <c r="C360" t="s">
+        <v>65</v>
+      </c>
+      <c r="D360" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E360" t="s">
+        <v>9</v>
+      </c>
+      <c r="F360" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="s">
+        <v>17</v>
+      </c>
+      <c r="B361" t="s">
+        <v>7</v>
+      </c>
+      <c r="C361" t="s">
+        <v>65</v>
+      </c>
+      <c r="D361" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E361" t="s">
+        <v>9</v>
+      </c>
+      <c r="F361" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="s">
+        <v>18</v>
+      </c>
+      <c r="B362" t="s">
+        <v>7</v>
+      </c>
+      <c r="C362" t="s">
+        <v>65</v>
+      </c>
+      <c r="D362" t="n">
+        <v>122.3</v>
+      </c>
+      <c r="E362" t="s">
+        <v>9</v>
+      </c>
+      <c r="F362" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="s">
+        <v>19</v>
+      </c>
+      <c r="B363" t="s">
+        <v>7</v>
+      </c>
+      <c r="C363" t="s">
+        <v>65</v>
+      </c>
+      <c r="D363" t="n">
+        <v>318.5</v>
+      </c>
+      <c r="E363" t="s">
+        <v>9</v>
+      </c>
+      <c r="F363" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="s">
+        <v>20</v>
+      </c>
+      <c r="B364" t="s">
+        <v>7</v>
+      </c>
+      <c r="C364" t="s">
+        <v>65</v>
+      </c>
+      <c r="D364" t="n">
+        <v>105.7</v>
+      </c>
+      <c r="E364" t="s">
+        <v>9</v>
+      </c>
+      <c r="F364" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="s">
+        <v>21</v>
+      </c>
+      <c r="B365" t="s">
+        <v>7</v>
+      </c>
+      <c r="C365" t="s">
+        <v>65</v>
+      </c>
+      <c r="D365" t="n">
+        <v>116.5</v>
+      </c>
+      <c r="E365" t="s">
+        <v>9</v>
+      </c>
+      <c r="F365" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="s">
+        <v>22</v>
+      </c>
+      <c r="B366" t="s">
+        <v>7</v>
+      </c>
+      <c r="C366" t="s">
+        <v>65</v>
+      </c>
+      <c r="D366" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="E366" t="s">
+        <v>9</v>
+      </c>
+      <c r="F366" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="s">
+        <v>23</v>
+      </c>
+      <c r="B367" t="s">
+        <v>7</v>
+      </c>
+      <c r="C367" t="s">
+        <v>65</v>
+      </c>
+      <c r="D367" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="E367" t="s">
+        <v>9</v>
+      </c>
+      <c r="F367" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="s">
+        <v>24</v>
+      </c>
+      <c r="B368" t="s">
+        <v>7</v>
+      </c>
+      <c r="C368" t="s">
+        <v>65</v>
+      </c>
+      <c r="D368" t="n">
+        <v>67.4</v>
+      </c>
+      <c r="E368" t="s">
+        <v>9</v>
+      </c>
+      <c r="F368" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="s">
+        <v>25</v>
+      </c>
+      <c r="B369" t="s">
+        <v>7</v>
+      </c>
+      <c r="C369" t="s">
+        <v>65</v>
+      </c>
+      <c r="D369" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="E369" t="s">
+        <v>9</v>
+      </c>
+      <c r="F369" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="s">
+        <v>26</v>
+      </c>
+      <c r="B370" t="s">
+        <v>7</v>
+      </c>
+      <c r="C370" t="s">
+        <v>65</v>
+      </c>
+      <c r="D370" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="E370" t="s">
+        <v>9</v>
+      </c>
+      <c r="F370" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="s">
+        <v>27</v>
+      </c>
+      <c r="B371" t="s">
+        <v>7</v>
+      </c>
+      <c r="C371" t="s">
+        <v>65</v>
+      </c>
+      <c r="D371" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="E371" t="s">
+        <v>9</v>
+      </c>
+      <c r="F371" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="s">
+        <v>28</v>
+      </c>
+      <c r="B372" t="s">
+        <v>7</v>
+      </c>
+      <c r="C372" t="s">
+        <v>65</v>
+      </c>
+      <c r="D372" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="E372" t="s">
+        <v>9</v>
+      </c>
+      <c r="F372" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="s">
+        <v>29</v>
+      </c>
+      <c r="B373" t="s">
+        <v>7</v>
+      </c>
+      <c r="C373" t="s">
+        <v>65</v>
+      </c>
+      <c r="D373" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="E373" t="s">
+        <v>9</v>
+      </c>
+      <c r="F373" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="s">
+        <v>30</v>
+      </c>
+      <c r="B374" t="s">
+        <v>7</v>
+      </c>
+      <c r="C374" t="s">
+        <v>65</v>
+      </c>
+      <c r="D374" t="n">
+        <v>1818.3</v>
+      </c>
+      <c r="E374" t="s">
+        <v>9</v>
+      </c>
+      <c r="F374" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="s">
+        <v>31</v>
+      </c>
+      <c r="B375" t="s">
+        <v>7</v>
+      </c>
+      <c r="C375" t="s">
+        <v>65</v>
+      </c>
+      <c r="D375" t="n">
+        <v>201.3</v>
+      </c>
+      <c r="E375" t="s">
+        <v>9</v>
+      </c>
+      <c r="F375" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="s">
+        <v>32</v>
+      </c>
+      <c r="B376" t="s">
+        <v>7</v>
+      </c>
+      <c r="C376" t="s">
+        <v>65</v>
+      </c>
+      <c r="D376" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="E376" t="s">
+        <v>9</v>
+      </c>
+      <c r="F376" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="s">
+        <v>33</v>
+      </c>
+      <c r="B377" t="s">
+        <v>7</v>
+      </c>
+      <c r="C377" t="s">
+        <v>65</v>
+      </c>
+      <c r="D377" t="n">
+        <v>22</v>
+      </c>
+      <c r="E377" t="s">
+        <v>9</v>
+      </c>
+      <c r="F377" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="s">
+        <v>34</v>
+      </c>
+      <c r="B378" t="s">
+        <v>7</v>
+      </c>
+      <c r="C378" t="s">
+        <v>65</v>
+      </c>
+      <c r="D378" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E378" t="s">
+        <v>9</v>
+      </c>
+      <c r="F378" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="s">
+        <v>35</v>
+      </c>
+      <c r="B379" t="s">
+        <v>7</v>
+      </c>
+      <c r="C379" t="s">
+        <v>65</v>
+      </c>
+      <c r="D379" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="E379" t="s">
+        <v>9</v>
+      </c>
+      <c r="F379" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="s">
+        <v>36</v>
+      </c>
+      <c r="B380" t="s">
+        <v>7</v>
+      </c>
+      <c r="C380" t="s">
+        <v>65</v>
+      </c>
+      <c r="D380" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E380" t="s">
+        <v>9</v>
+      </c>
+      <c r="F380" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="s">
+        <v>37</v>
+      </c>
+      <c r="B381" t="s">
+        <v>7</v>
+      </c>
+      <c r="C381" t="s">
+        <v>65</v>
+      </c>
+      <c r="D381" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="E381" t="s">
+        <v>9</v>
+      </c>
+      <c r="F381" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="s">
+        <v>38</v>
+      </c>
+      <c r="B382" t="s">
+        <v>7</v>
+      </c>
+      <c r="C382" t="s">
+        <v>65</v>
+      </c>
+      <c r="D382" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="E382" t="s">
+        <v>9</v>
+      </c>
+      <c r="F382" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="s">
+        <v>39</v>
+      </c>
+      <c r="B383" t="s">
+        <v>7</v>
+      </c>
+      <c r="C383" t="s">
+        <v>65</v>
+      </c>
+      <c r="D383" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="E383" t="s">
+        <v>9</v>
+      </c>
+      <c r="F383" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="s">
+        <v>40</v>
+      </c>
+      <c r="B384" t="s">
+        <v>7</v>
+      </c>
+      <c r="C384" t="s">
+        <v>65</v>
+      </c>
+      <c r="D384" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="E384" t="s">
+        <v>9</v>
+      </c>
+      <c r="F384" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="s">
+        <v>41</v>
+      </c>
+      <c r="B385" t="s">
+        <v>7</v>
+      </c>
+      <c r="C385" t="s">
+        <v>65</v>
+      </c>
+      <c r="D385" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E385" t="s">
+        <v>9</v>
+      </c>
+      <c r="F385" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="s">
+        <v>6</v>
+      </c>
+      <c r="B386" t="s">
+        <v>7</v>
+      </c>
+      <c r="C386" t="s">
+        <v>67</v>
+      </c>
+      <c r="D386"/>
+      <c r="E386" t="s">
+        <v>43</v>
+      </c>
+      <c r="F386" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="s">
+        <v>11</v>
+      </c>
+      <c r="B387" t="s">
+        <v>7</v>
+      </c>
+      <c r="C387" t="s">
+        <v>67</v>
+      </c>
+      <c r="D387"/>
+      <c r="E387" t="s">
+        <v>43</v>
+      </c>
+      <c r="F387" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="s">
+        <v>12</v>
+      </c>
+      <c r="B388" t="s">
+        <v>7</v>
+      </c>
+      <c r="C388" t="s">
+        <v>67</v>
+      </c>
+      <c r="D388"/>
+      <c r="E388" t="s">
+        <v>43</v>
+      </c>
+      <c r="F388" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="s">
+        <v>13</v>
+      </c>
+      <c r="B389" t="s">
+        <v>7</v>
+      </c>
+      <c r="C389" t="s">
+        <v>67</v>
+      </c>
+      <c r="D389"/>
+      <c r="E389" t="s">
+        <v>43</v>
+      </c>
+      <c r="F389" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="s">
+        <v>14</v>
+      </c>
+      <c r="B390" t="s">
+        <v>7</v>
+      </c>
+      <c r="C390" t="s">
+        <v>67</v>
+      </c>
+      <c r="D390"/>
+      <c r="E390" t="s">
+        <v>43</v>
+      </c>
+      <c r="F390" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="s">
+        <v>15</v>
+      </c>
+      <c r="B391" t="s">
+        <v>7</v>
+      </c>
+      <c r="C391" t="s">
+        <v>67</v>
+      </c>
+      <c r="D391"/>
+      <c r="E391" t="s">
+        <v>43</v>
+      </c>
+      <c r="F391" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="s">
+        <v>16</v>
+      </c>
+      <c r="B392" t="s">
+        <v>7</v>
+      </c>
+      <c r="C392" t="s">
+        <v>67</v>
+      </c>
+      <c r="D392"/>
+      <c r="E392" t="s">
+        <v>43</v>
+      </c>
+      <c r="F392" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="s">
+        <v>17</v>
+      </c>
+      <c r="B393" t="s">
+        <v>7</v>
+      </c>
+      <c r="C393" t="s">
+        <v>67</v>
+      </c>
+      <c r="D393"/>
+      <c r="E393" t="s">
+        <v>43</v>
+      </c>
+      <c r="F393" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="s">
+        <v>18</v>
+      </c>
+      <c r="B394" t="s">
+        <v>7</v>
+      </c>
+      <c r="C394" t="s">
+        <v>67</v>
+      </c>
+      <c r="D394"/>
+      <c r="E394" t="s">
+        <v>43</v>
+      </c>
+      <c r="F394" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="s">
+        <v>19</v>
+      </c>
+      <c r="B395" t="s">
+        <v>7</v>
+      </c>
+      <c r="C395" t="s">
+        <v>67</v>
+      </c>
+      <c r="D395"/>
+      <c r="E395" t="s">
+        <v>43</v>
+      </c>
+      <c r="F395" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="s">
+        <v>20</v>
+      </c>
+      <c r="B396" t="s">
+        <v>7</v>
+      </c>
+      <c r="C396" t="s">
+        <v>67</v>
+      </c>
+      <c r="D396"/>
+      <c r="E396" t="s">
+        <v>43</v>
+      </c>
+      <c r="F396" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="s">
+        <v>21</v>
+      </c>
+      <c r="B397" t="s">
+        <v>7</v>
+      </c>
+      <c r="C397" t="s">
+        <v>67</v>
+      </c>
+      <c r="D397"/>
+      <c r="E397" t="s">
+        <v>43</v>
+      </c>
+      <c r="F397" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="s">
+        <v>22</v>
+      </c>
+      <c r="B398" t="s">
+        <v>7</v>
+      </c>
+      <c r="C398" t="s">
+        <v>67</v>
+      </c>
+      <c r="D398"/>
+      <c r="E398" t="s">
+        <v>43</v>
+      </c>
+      <c r="F398" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="s">
+        <v>23</v>
+      </c>
+      <c r="B399" t="s">
+        <v>7</v>
+      </c>
+      <c r="C399" t="s">
+        <v>67</v>
+      </c>
+      <c r="D399"/>
+      <c r="E399" t="s">
+        <v>43</v>
+      </c>
+      <c r="F399" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="s">
+        <v>24</v>
+      </c>
+      <c r="B400" t="s">
+        <v>7</v>
+      </c>
+      <c r="C400" t="s">
+        <v>67</v>
+      </c>
+      <c r="D400"/>
+      <c r="E400" t="s">
+        <v>43</v>
+      </c>
+      <c r="F400" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="s">
+        <v>25</v>
+      </c>
+      <c r="B401" t="s">
+        <v>7</v>
+      </c>
+      <c r="C401" t="s">
+        <v>67</v>
+      </c>
+      <c r="D401"/>
+      <c r="E401" t="s">
+        <v>43</v>
+      </c>
+      <c r="F401" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="s">
+        <v>26</v>
+      </c>
+      <c r="B402" t="s">
+        <v>7</v>
+      </c>
+      <c r="C402" t="s">
+        <v>67</v>
+      </c>
+      <c r="D402"/>
+      <c r="E402" t="s">
+        <v>43</v>
+      </c>
+      <c r="F402" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="s">
+        <v>27</v>
+      </c>
+      <c r="B403" t="s">
+        <v>7</v>
+      </c>
+      <c r="C403" t="s">
+        <v>67</v>
+      </c>
+      <c r="D403"/>
+      <c r="E403" t="s">
+        <v>43</v>
+      </c>
+      <c r="F403" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="s">
+        <v>28</v>
+      </c>
+      <c r="B404" t="s">
+        <v>7</v>
+      </c>
+      <c r="C404" t="s">
+        <v>67</v>
+      </c>
+      <c r="D404"/>
+      <c r="E404" t="s">
+        <v>43</v>
+      </c>
+      <c r="F404" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="s">
+        <v>29</v>
+      </c>
+      <c r="B405" t="s">
+        <v>7</v>
+      </c>
+      <c r="C405" t="s">
+        <v>67</v>
+      </c>
+      <c r="D405"/>
+      <c r="E405" t="s">
+        <v>43</v>
+      </c>
+      <c r="F405" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="s">
+        <v>30</v>
+      </c>
+      <c r="B406" t="s">
+        <v>7</v>
+      </c>
+      <c r="C406" t="s">
+        <v>67</v>
+      </c>
+      <c r="D406"/>
+      <c r="E406" t="s">
+        <v>43</v>
+      </c>
+      <c r="F406" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="s">
+        <v>31</v>
+      </c>
+      <c r="B407" t="s">
+        <v>7</v>
+      </c>
+      <c r="C407" t="s">
+        <v>67</v>
+      </c>
+      <c r="D407"/>
+      <c r="E407" t="s">
+        <v>43</v>
+      </c>
+      <c r="F407" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="s">
+        <v>32</v>
+      </c>
+      <c r="B408" t="s">
+        <v>7</v>
+      </c>
+      <c r="C408" t="s">
+        <v>67</v>
+      </c>
+      <c r="D408"/>
+      <c r="E408" t="s">
+        <v>43</v>
+      </c>
+      <c r="F408" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="s">
+        <v>33</v>
+      </c>
+      <c r="B409" t="s">
+        <v>7</v>
+      </c>
+      <c r="C409" t="s">
+        <v>67</v>
+      </c>
+      <c r="D409"/>
+      <c r="E409" t="s">
+        <v>43</v>
+      </c>
+      <c r="F409" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="s">
+        <v>34</v>
+      </c>
+      <c r="B410" t="s">
+        <v>7</v>
+      </c>
+      <c r="C410" t="s">
+        <v>67</v>
+      </c>
+      <c r="D410"/>
+      <c r="E410" t="s">
+        <v>43</v>
+      </c>
+      <c r="F410" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="s">
+        <v>35</v>
+      </c>
+      <c r="B411" t="s">
+        <v>7</v>
+      </c>
+      <c r="C411" t="s">
+        <v>67</v>
+      </c>
+      <c r="D411"/>
+      <c r="E411" t="s">
+        <v>43</v>
+      </c>
+      <c r="F411" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="s">
+        <v>36</v>
+      </c>
+      <c r="B412" t="s">
+        <v>7</v>
+      </c>
+      <c r="C412" t="s">
+        <v>67</v>
+      </c>
+      <c r="D412"/>
+      <c r="E412" t="s">
+        <v>43</v>
+      </c>
+      <c r="F412" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="s">
+        <v>37</v>
+      </c>
+      <c r="B413" t="s">
+        <v>7</v>
+      </c>
+      <c r="C413" t="s">
+        <v>67</v>
+      </c>
+      <c r="D413"/>
+      <c r="E413" t="s">
+        <v>43</v>
+      </c>
+      <c r="F413" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="s">
+        <v>38</v>
+      </c>
+      <c r="B414" t="s">
+        <v>7</v>
+      </c>
+      <c r="C414" t="s">
+        <v>67</v>
+      </c>
+      <c r="D414"/>
+      <c r="E414" t="s">
+        <v>43</v>
+      </c>
+      <c r="F414" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="s">
+        <v>39</v>
+      </c>
+      <c r="B415" t="s">
+        <v>7</v>
+      </c>
+      <c r="C415" t="s">
+        <v>67</v>
+      </c>
+      <c r="D415"/>
+      <c r="E415" t="s">
+        <v>43</v>
+      </c>
+      <c r="F415" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="s">
+        <v>40</v>
+      </c>
+      <c r="B416" t="s">
+        <v>7</v>
+      </c>
+      <c r="C416" t="s">
+        <v>67</v>
+      </c>
+      <c r="D416"/>
+      <c r="E416" t="s">
+        <v>43</v>
+      </c>
+      <c r="F416" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="s">
+        <v>41</v>
+      </c>
+      <c r="B417" t="s">
+        <v>7</v>
+      </c>
+      <c r="C417" t="s">
+        <v>67</v>
+      </c>
+      <c r="D417"/>
+      <c r="E417" t="s">
+        <v>43</v>
+      </c>
+      <c r="F417" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="s">
+        <v>6</v>
+      </c>
+      <c r="B418" t="s">
+        <v>7</v>
+      </c>
+      <c r="C418" t="s">
+        <v>69</v>
+      </c>
+      <c r="D418" t="n">
+        <v>6543.8</v>
+      </c>
+      <c r="E418" t="s">
+        <v>70</v>
+      </c>
+      <c r="F418" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="s">
+        <v>11</v>
+      </c>
+      <c r="B419" t="s">
+        <v>7</v>
+      </c>
+      <c r="C419" t="s">
+        <v>69</v>
+      </c>
+      <c r="D419" t="n">
+        <v>125.7</v>
+      </c>
+      <c r="E419" t="s">
+        <v>70</v>
+      </c>
+      <c r="F419" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="s">
+        <v>12</v>
+      </c>
+      <c r="B420" t="s">
+        <v>7</v>
+      </c>
+      <c r="C420" t="s">
+        <v>69</v>
+      </c>
+      <c r="D420" t="n">
+        <v>1228.3</v>
+      </c>
+      <c r="E420" t="s">
+        <v>70</v>
+      </c>
+      <c r="F420" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="s">
+        <v>13</v>
+      </c>
+      <c r="B421" t="s">
+        <v>7</v>
+      </c>
+      <c r="C421" t="s">
+        <v>69</v>
+      </c>
+      <c r="D421" t="n">
+        <v>2102.8</v>
+      </c>
+      <c r="E421" t="s">
+        <v>70</v>
+      </c>
+      <c r="F421" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="s">
+        <v>14</v>
+      </c>
+      <c r="B422" t="s">
+        <v>7</v>
+      </c>
+      <c r="C422" t="s">
+        <v>69</v>
+      </c>
+      <c r="D422" t="n">
+        <v>2429.9</v>
+      </c>
+      <c r="E422" t="s">
+        <v>70</v>
+      </c>
+      <c r="F422" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="s">
+        <v>15</v>
+      </c>
+      <c r="B423" t="s">
+        <v>7</v>
+      </c>
+      <c r="C423" t="s">
+        <v>69</v>
+      </c>
+      <c r="D423" t="n">
+        <v>3750.8</v>
+      </c>
+      <c r="E423" t="s">
+        <v>70</v>
+      </c>
+      <c r="F423" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="s">
+        <v>16</v>
+      </c>
+      <c r="B424" t="s">
+        <v>7</v>
+      </c>
+      <c r="C424" t="s">
+        <v>69</v>
+      </c>
+      <c r="D424" t="n">
+        <v>2376.7</v>
+      </c>
+      <c r="E424" t="s">
+        <v>70</v>
+      </c>
+      <c r="F424" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="s">
+        <v>17</v>
+      </c>
+      <c r="B425" t="s">
+        <v>7</v>
+      </c>
+      <c r="C425" t="s">
+        <v>69</v>
+      </c>
+      <c r="D425" t="n">
+        <v>565.8</v>
+      </c>
+      <c r="E425" t="s">
+        <v>70</v>
+      </c>
+      <c r="F425" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="s">
+        <v>18</v>
+      </c>
+      <c r="B426" t="s">
+        <v>7</v>
+      </c>
+      <c r="C426" t="s">
+        <v>69</v>
+      </c>
+      <c r="D426" t="n">
+        <v>7706.2</v>
+      </c>
+      <c r="E426" t="s">
+        <v>70</v>
+      </c>
+      <c r="F426" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="s">
+        <v>19</v>
+      </c>
+      <c r="B427" t="s">
+        <v>7</v>
+      </c>
+      <c r="C427" t="s">
+        <v>69</v>
+      </c>
+      <c r="D427" t="n">
+        <v>10204.5</v>
+      </c>
+      <c r="E427" t="s">
+        <v>70</v>
+      </c>
+      <c r="F427" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="s">
+        <v>20</v>
+      </c>
+      <c r="B428" t="s">
+        <v>7</v>
+      </c>
+      <c r="C428" t="s">
+        <v>69</v>
+      </c>
+      <c r="D428" t="n">
+        <v>6084.7</v>
+      </c>
+      <c r="E428" t="s">
+        <v>70</v>
+      </c>
+      <c r="F428" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="s">
+        <v>21</v>
+      </c>
+      <c r="B429" t="s">
+        <v>7</v>
+      </c>
+      <c r="C429" t="s">
+        <v>69</v>
+      </c>
+      <c r="D429" t="n">
+        <v>4424.6</v>
+      </c>
+      <c r="E429" t="s">
+        <v>70</v>
+      </c>
+      <c r="F429" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="s">
+        <v>22</v>
+      </c>
+      <c r="B430" t="s">
+        <v>7</v>
+      </c>
+      <c r="C430" t="s">
+        <v>69</v>
+      </c>
+      <c r="D430" t="n">
+        <v>6338.6</v>
+      </c>
+      <c r="E430" t="s">
+        <v>70</v>
+      </c>
+      <c r="F430" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="s">
+        <v>23</v>
+      </c>
+      <c r="B431" t="s">
+        <v>7</v>
+      </c>
+      <c r="C431" t="s">
+        <v>69</v>
+      </c>
+      <c r="D431" t="n">
+        <v>3466</v>
+      </c>
+      <c r="E431" t="s">
+        <v>70</v>
+      </c>
+      <c r="F431" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="s">
+        <v>24</v>
+      </c>
+      <c r="B432" t="s">
+        <v>7</v>
+      </c>
+      <c r="C432" t="s">
+        <v>69</v>
+      </c>
+      <c r="D432" t="n">
+        <v>5017.7</v>
+      </c>
+      <c r="E432" t="s">
+        <v>70</v>
+      </c>
+      <c r="F432" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="s">
+        <v>25</v>
+      </c>
+      <c r="B433" t="s">
+        <v>7</v>
+      </c>
+      <c r="C433" t="s">
+        <v>69</v>
+      </c>
+      <c r="D433" t="n">
+        <v>2382</v>
+      </c>
+      <c r="E433" t="s">
+        <v>70</v>
+      </c>
+      <c r="F433" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="s">
+        <v>26</v>
+      </c>
+      <c r="B434" t="s">
+        <v>7</v>
+      </c>
+      <c r="C434" t="s">
+        <v>69</v>
+      </c>
+      <c r="D434" t="n">
+        <v>2243.7</v>
+      </c>
+      <c r="E434" t="s">
+        <v>70</v>
+      </c>
+      <c r="F434" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="s">
+        <v>27</v>
+      </c>
+      <c r="B435" t="s">
+        <v>7</v>
+      </c>
+      <c r="C435" t="s">
+        <v>69</v>
+      </c>
+      <c r="D435" t="n">
+        <v>3663.7</v>
+      </c>
+      <c r="E435" t="s">
+        <v>70</v>
+      </c>
+      <c r="F435" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="s">
+        <v>28</v>
+      </c>
+      <c r="B436" t="s">
+        <v>7</v>
+      </c>
+      <c r="C436" t="s">
+        <v>69</v>
+      </c>
+      <c r="D436" t="n">
+        <v>621.9</v>
+      </c>
+      <c r="E436" t="s">
+        <v>70</v>
+      </c>
+      <c r="F436" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="s">
+        <v>29</v>
+      </c>
+      <c r="B437" t="s">
+        <v>7</v>
+      </c>
+      <c r="C437" t="s">
+        <v>69</v>
+      </c>
+      <c r="D437" t="n">
+        <v>472.1</v>
+      </c>
+      <c r="E437" t="s">
+        <v>70</v>
+      </c>
+      <c r="F437" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="s">
+        <v>30</v>
+      </c>
+      <c r="B438" t="s">
+        <v>7</v>
+      </c>
+      <c r="C438" t="s">
+        <v>69</v>
+      </c>
+      <c r="D438" t="n">
+        <v>100371.7</v>
+      </c>
+      <c r="E438" t="s">
+        <v>70</v>
+      </c>
+      <c r="F438" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="s">
+        <v>31</v>
+      </c>
+      <c r="B439" t="s">
+        <v>7</v>
+      </c>
+      <c r="C439" t="s">
+        <v>69</v>
+      </c>
+      <c r="D439" t="n">
+        <v>10415.2</v>
+      </c>
+      <c r="E439" t="s">
+        <v>70</v>
+      </c>
+      <c r="F439" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="s">
+        <v>32</v>
+      </c>
+      <c r="B440" t="s">
+        <v>7</v>
+      </c>
+      <c r="C440" t="s">
+        <v>69</v>
+      </c>
+      <c r="D440" t="n">
+        <v>1441.1</v>
+      </c>
+      <c r="E440" t="s">
+        <v>70</v>
+      </c>
+      <c r="F440" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="s">
+        <v>33</v>
+      </c>
+      <c r="B441" t="s">
+        <v>7</v>
+      </c>
+      <c r="C441" t="s">
+        <v>69</v>
+      </c>
+      <c r="D441" t="n">
+        <v>2311.8</v>
+      </c>
+      <c r="E441" t="s">
+        <v>70</v>
+      </c>
+      <c r="F441" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="s">
+        <v>34</v>
+      </c>
+      <c r="B442" t="s">
+        <v>7</v>
+      </c>
+      <c r="C442" t="s">
+        <v>69</v>
+      </c>
+      <c r="D442" t="n">
+        <v>94</v>
+      </c>
+      <c r="E442" t="s">
+        <v>70</v>
+      </c>
+      <c r="F442" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="s">
+        <v>35</v>
+      </c>
+      <c r="B443" t="s">
+        <v>7</v>
+      </c>
+      <c r="C443" t="s">
+        <v>69</v>
+      </c>
+      <c r="D443" t="n">
+        <v>4603.9</v>
+      </c>
+      <c r="E443" t="s">
+        <v>70</v>
+      </c>
+      <c r="F443" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="s">
+        <v>36</v>
+      </c>
+      <c r="B444" t="s">
+        <v>7</v>
+      </c>
+      <c r="C444" t="s">
+        <v>69</v>
+      </c>
+      <c r="D444" t="n">
+        <v>348</v>
+      </c>
+      <c r="E444" t="s">
+        <v>70</v>
+      </c>
+      <c r="F444" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="s">
+        <v>37</v>
+      </c>
+      <c r="B445" t="s">
+        <v>7</v>
+      </c>
+      <c r="C445" t="s">
+        <v>69</v>
+      </c>
+      <c r="D445" t="n">
+        <v>545.8</v>
+      </c>
+      <c r="E445" t="s">
+        <v>70</v>
+      </c>
+      <c r="F445" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="s">
+        <v>38</v>
+      </c>
+      <c r="B446" t="s">
+        <v>7</v>
+      </c>
+      <c r="C446" t="s">
+        <v>69</v>
+      </c>
+      <c r="D446" t="n">
+        <v>2731.8</v>
+      </c>
+      <c r="E446" t="s">
+        <v>70</v>
+      </c>
+      <c r="F446" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="s">
+        <v>39</v>
+      </c>
+      <c r="B447" t="s">
+        <v>7</v>
+      </c>
+      <c r="C447" t="s">
+        <v>69</v>
+      </c>
+      <c r="D447" t="n">
+        <v>2693.5</v>
+      </c>
+      <c r="E447" t="s">
+        <v>70</v>
+      </c>
+      <c r="F447" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="s">
+        <v>40</v>
+      </c>
+      <c r="B448" t="s">
+        <v>7</v>
+      </c>
+      <c r="C448" t="s">
+        <v>69</v>
+      </c>
+      <c r="D448" t="n">
+        <v>2009.3</v>
+      </c>
+      <c r="E448" t="s">
+        <v>70</v>
+      </c>
+      <c r="F448" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="s">
+        <v>41</v>
+      </c>
+      <c r="B449" t="s">
+        <v>7</v>
+      </c>
+      <c r="C449" t="s">
+        <v>69</v>
+      </c>
+      <c r="D449" t="n">
+        <v>1428.1</v>
+      </c>
+      <c r="E449" t="s">
+        <v>70</v>
+      </c>
+      <c r="F449" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
